--- a/data/trans_orig/P21B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4632</v>
+        <v>5505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009139774909288557</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04712080185658904</v>
+        <v>0.05599949306528339</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3961</v>
+        <v>3434</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006635095086397715</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03552387179838973</v>
+        <v>0.0308001934957753</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6230</v>
+        <v>5494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007808661794472365</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02969545995328173</v>
+        <v>0.0261866085233569</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5441</v>
+        <v>5783</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01089473858554596</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05534938445096934</v>
+        <v>0.05883255448539869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5430</v>
+        <v>4365</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005104725314717509</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02588144832028144</v>
+        <v>0.0208061030206439</v>
       </c>
     </row>
     <row r="6">
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6460</v>
+        <v>6353</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01645944797036318</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05793359666078304</v>
+        <v>0.05698111527043966</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6342</v>
+        <v>6386</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008747380346082672</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03022957669038012</v>
+        <v>0.03043977464795638</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>25334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17194</v>
+        <v>17458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34504</v>
+        <v>35281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2577067293627149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1749080740809614</v>
+        <v>0.1775870554594448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3509977124579715</v>
+        <v>0.3588921839866028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -962,19 +962,19 @@
         <v>44323</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34523</v>
+        <v>34887</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54800</v>
+        <v>54931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3975145680519208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.309616241136959</v>
+        <v>0.312885076378242</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4914758119333597</v>
+        <v>0.4926480497143083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -983,19 +983,19 @@
         <v>69657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55495</v>
+        <v>56670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83514</v>
+        <v>82453</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3320076623332677</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.26450846262246</v>
+        <v>0.2701078340751382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3980548777031674</v>
+        <v>0.3929979838127055</v>
       </c>
     </row>
     <row r="8">
@@ -1012,19 +1012,19 @@
         <v>71001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61356</v>
+        <v>60994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79235</v>
+        <v>79543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7222587571424506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6241492821825104</v>
+        <v>0.6204593134288885</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8060167120815028</v>
+        <v>0.8091537067575432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -1033,19 +1033,19 @@
         <v>64603</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54277</v>
+        <v>54513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74575</v>
+        <v>74470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5793908888913183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.48678259849635</v>
+        <v>0.4889033539009187</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6688286337415696</v>
+        <v>0.6678851593106773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>136</v>
@@ -1054,19 +1054,19 @@
         <v>135603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121851</v>
+        <v>122368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>149901</v>
+        <v>148269</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6463315702114597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5807855554599581</v>
+        <v>0.583248959154839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7144792419758007</v>
+        <v>0.7067029527545937</v>
       </c>
     </row>
     <row r="9">
@@ -1205,19 +1205,19 @@
         <v>3639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8113</v>
+        <v>9278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03268095261988318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00804848319309941</v>
+        <v>0.008105859149301909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07285054831535401</v>
+        <v>0.08331730640026314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1226,19 +1226,19 @@
         <v>4106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9653</v>
+        <v>10237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02216539668298789</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005575787815120597</v>
+        <v>0.005440895094848816</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05210613095091928</v>
+        <v>0.05526074268868428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1247,19 +1247,19 @@
         <v>7746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3682</v>
+        <v>3637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14262</v>
+        <v>14330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02611340320691824</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01241210721139115</v>
+        <v>0.0122610058537908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04808363805758593</v>
+        <v>0.04831300984087056</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7181</v>
+        <v>6268</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01819596314459682</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06448340523228571</v>
+        <v>0.05628465023765569</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1297,19 +1297,19 @@
         <v>5631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1889</v>
+        <v>1915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13402</v>
+        <v>12547</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03039486837248511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01019862739601585</v>
+        <v>0.01033660254583354</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07234453792683974</v>
+        <v>0.06773010676283558</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1318,19 +1318,19 @@
         <v>7657</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3218</v>
+        <v>2997</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15425</v>
+        <v>16619</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02581485779448702</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01084966396443376</v>
+        <v>0.01010485918369789</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05200284176556599</v>
+        <v>0.05602992206043676</v>
       </c>
     </row>
     <row r="13">
@@ -1347,19 +1347,19 @@
         <v>37238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27384</v>
+        <v>27827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47414</v>
+        <v>48117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3343868690659993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2459034935743962</v>
+        <v>0.2498758729863635</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4257614000152468</v>
+        <v>0.4320757957882526</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -1368,19 +1368,19 @@
         <v>39358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28747</v>
+        <v>29162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50449</v>
+        <v>52770</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2124554391540649</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1551787178990528</v>
+        <v>0.1574178301971499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.27232653863329</v>
+        <v>0.2848556451300253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>75</v>
@@ -1389,19 +1389,19 @@
         <v>76596</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63007</v>
+        <v>61342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94135</v>
+        <v>92875</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.258233910939419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2124210119427704</v>
+        <v>0.2068079241273853</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.317365353161971</v>
+        <v>0.3131183715175042</v>
       </c>
     </row>
     <row r="14">
@@ -1418,19 +1418,19 @@
         <v>68458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58079</v>
+        <v>56597</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78130</v>
+        <v>77678</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6147362151695207</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5215322078857338</v>
+        <v>0.508228914468856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.701589699001015</v>
+        <v>0.6975243412716196</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -1439,19 +1439,19 @@
         <v>136157</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123412</v>
+        <v>123122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147527</v>
+        <v>147727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7349842957904621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6661826978668269</v>
+        <v>0.6646178616830525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.796360280770671</v>
+        <v>0.7974364623919388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -1460,19 +1460,19 @@
         <v>204616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186589</v>
+        <v>187010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219532</v>
+        <v>219933</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6898378280591757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6290642382548387</v>
+        <v>0.6304827375004739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7401271567715787</v>
+        <v>0.7414786069074621</v>
       </c>
     </row>
     <row r="15">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5076</v>
+        <v>3738</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009985272458623471</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05728125990629235</v>
+        <v>0.04217929889334938</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1632,19 +1632,19 @@
         <v>2825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8365</v>
+        <v>7468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.020603374796448</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006206830776940844</v>
+        <v>0.00616390101126301</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06100341068277048</v>
+        <v>0.05446012036767421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1653,19 +1653,19 @@
         <v>3710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>891</v>
+        <v>979</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8454</v>
+        <v>9091</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01643530809999962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003949009978887096</v>
+        <v>0.004335664256499767</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0374485991852302</v>
+        <v>0.04027158251831339</v>
       </c>
     </row>
     <row r="18">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4143</v>
+        <v>5969</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01112438989810487</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04675566455814695</v>
+        <v>0.06735691081497656</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>4980</v>
+        <v>4951</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.004366806570268717</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02206217130116347</v>
+        <v>0.02193025487009997</v>
       </c>
     </row>
     <row r="19">
@@ -1745,19 +1745,19 @@
         <v>14067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8176</v>
+        <v>7930</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22966</v>
+        <v>21248</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1587416796940454</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09226821322713781</v>
+        <v>0.08948487847656543</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2591764712838276</v>
+        <v>0.2397878807372588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1766,19 +1766,19 @@
         <v>41047</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30558</v>
+        <v>30628</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52395</v>
+        <v>51527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2993386515932169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2228409511214277</v>
+        <v>0.2233561596391504</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3820899664897959</v>
+        <v>0.3757580654406875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -1787,19 +1787,19 @@
         <v>55114</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42763</v>
+        <v>42124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69770</v>
+        <v>69458</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2441482289028201</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1894332024434641</v>
+        <v>0.1866036993839976</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3090720617521751</v>
+        <v>0.3076906567310723</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>72676</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63591</v>
+        <v>65411</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78744</v>
+        <v>79187</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8201486579492263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7176285887119624</v>
+        <v>0.7381679417608917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8886237481849867</v>
+        <v>0.8936235431693643</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -1837,19 +1837,19 @@
         <v>93254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81217</v>
+        <v>82531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>103731</v>
+        <v>104160</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6800579736103352</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5922743612254923</v>
+        <v>0.6018573283931301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.756462614453729</v>
+        <v>0.75958463077627</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>160</v>
@@ -1858,19 +1858,19 @@
         <v>165930</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151333</v>
+        <v>151728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>179492</v>
+        <v>178976</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7350496564269116</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6703863788160853</v>
+        <v>0.6721375590018388</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7951272913583146</v>
+        <v>0.7928404935051638</v>
       </c>
     </row>
     <row r="21">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6217</v>
+        <v>6931</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02435967880308478</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0785444476305668</v>
+        <v>0.08756217629719366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6765</v>
+        <v>5984</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01053229050964942</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0369515643119371</v>
+        <v>0.03268780755742963</v>
       </c>
     </row>
     <row r="24">
@@ -2072,19 +2072,19 @@
         <v>3710</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13109</v>
+        <v>10634</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04687544040442741</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01097403270770464</v>
+        <v>0.01079929451590609</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1656120869849271</v>
+        <v>0.134340067782972</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2106,19 +2106,19 @@
         <v>3710</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10715</v>
+        <v>11399</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02026733439706388</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004645874617841234</v>
+        <v>0.004597324194208626</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05852976507740471</v>
+        <v>0.0622650397106663</v>
       </c>
     </row>
     <row r="25">
@@ -2135,19 +2135,19 @@
         <v>21955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15063</v>
+        <v>14686</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31389</v>
+        <v>30732</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2773693162052212</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1902976819971839</v>
+        <v>0.1855398013471716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3965564728197475</v>
+        <v>0.3882513468196979</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -2156,19 +2156,19 @@
         <v>31499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23357</v>
+        <v>23175</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41886</v>
+        <v>41441</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3031095957548701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2247647572983134</v>
+        <v>0.223015846289458</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4030704261634658</v>
+        <v>0.398787114862042</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2177,19 +2177,19 @@
         <v>53453</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42073</v>
+        <v>41881</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66564</v>
+        <v>67572</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2919803807841801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2298157659341256</v>
+        <v>0.2287671308612627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3635949436365283</v>
+        <v>0.3690990744393392</v>
       </c>
     </row>
     <row r="26">
@@ -2206,19 +2206,19 @@
         <v>51561</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42392</v>
+        <v>41994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59822</v>
+        <v>58962</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6513955645872667</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5355695227846518</v>
+        <v>0.5305348361140201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7557679902048597</v>
+        <v>0.7449007530443296</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2227,19 +2227,19 @@
         <v>72419</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62032</v>
+        <v>62477</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80561</v>
+        <v>80743</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6968904042451299</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5969295738365343</v>
+        <v>0.6012128851379578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7752352427016865</v>
+        <v>0.7769841537105419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>120</v>
@@ -2248,19 +2248,19 @@
         <v>123980</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110694</v>
+        <v>109665</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>136048</v>
+        <v>136645</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6772199943091066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6046482918161036</v>
+        <v>0.5990284786116117</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7431387380920197</v>
+        <v>0.7464000151556619</v>
       </c>
     </row>
     <row r="27">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7878</v>
+        <v>6752</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02486648500049351</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09115097044502596</v>
+        <v>0.07811715418162188</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7647</v>
+        <v>7200</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01437270953007833</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05113927219101996</v>
+        <v>0.04814811796517916</v>
       </c>
     </row>
     <row r="29">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9789</v>
+        <v>11220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04228869824396745</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1551232766652964</v>
+        <v>0.1778029080008801</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9064</v>
+        <v>8804</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02881385630939608</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.104872366926257</v>
+        <v>0.1018591595601431</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2457,19 +2457,19 @@
         <v>5159</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1287</v>
+        <v>1524</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11507</v>
+        <v>13235</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03450030398215403</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008607646547549867</v>
+        <v>0.01019257261246059</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07695256914652987</v>
+        <v>0.08850901755394087</v>
       </c>
     </row>
     <row r="30">
@@ -2486,19 +2486,19 @@
         <v>3523</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11136</v>
+        <v>9774</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0558343767845082</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01388265144944994</v>
+        <v>0.01369095685853994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1764606215667959</v>
+        <v>0.1548813864735473</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>3523</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8962</v>
+        <v>9670</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02356237375308824</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005689252792653659</v>
+        <v>0.005815468624669071</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05992934770228562</v>
+        <v>0.06466515579846949</v>
       </c>
     </row>
     <row r="31">
@@ -2549,19 +2549,19 @@
         <v>14705</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8818</v>
+        <v>8547</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21925</v>
+        <v>21121</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.233021608965466</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1397430485279855</v>
+        <v>0.1354386830449734</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3474405673251059</v>
+        <v>0.3346933811375685</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2570,19 +2570,19 @@
         <v>25197</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17593</v>
+        <v>17514</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>34578</v>
+        <v>34031</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2915200244527998</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.203548922283601</v>
+        <v>0.2026315881304165</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4000604173513879</v>
+        <v>0.3937334300396369</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -2591,19 +2591,19 @@
         <v>39901</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30172</v>
+        <v>29734</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51719</v>
+        <v>50735</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2668334136396127</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2017690353409134</v>
+        <v>0.1988390024750394</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3458590285601496</v>
+        <v>0.3392809038314359</v>
       </c>
     </row>
     <row r="32">
@@ -2620,19 +2620,19 @@
         <v>42208</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34002</v>
+        <v>33872</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49379</v>
+        <v>48817</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6688553160060583</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5388236722031405</v>
+        <v>0.5367533773226799</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7824845919947618</v>
+        <v>0.7735774340610069</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>56</v>
@@ -2641,19 +2641,19 @@
         <v>56596</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47239</v>
+        <v>46611</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64507</v>
+        <v>65323</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6547996342373106</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5465405469451138</v>
+        <v>0.5392739014165799</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7463331102099233</v>
+        <v>0.7557740842762312</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>99</v>
@@ -2662,19 +2662,19 @@
         <v>98804</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>86477</v>
+        <v>86408</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>109441</v>
+        <v>109252</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6607311990950667</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5783003587462654</v>
+        <v>0.5778341373124137</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7318634274100748</v>
+        <v>0.7306007564666304</v>
       </c>
     </row>
     <row r="33">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4257</v>
+        <v>4232</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01368175513198998</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06946531398777168</v>
+        <v>0.06906454563771798</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4463</v>
+        <v>4276</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005376840254610364</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02862428971496913</v>
+        <v>0.02742157104393537</v>
       </c>
     </row>
     <row r="35">
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5478</v>
+        <v>6238</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01894375563772657</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05787839169997809</v>
+        <v>0.06590618443896554</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6340</v>
+        <v>5496</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0114989836107611</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04065730591081918</v>
+        <v>0.0352459678195913</v>
       </c>
     </row>
     <row r="36">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4554</v>
+        <v>4878</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01452142246116908</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0743112227988921</v>
+        <v>0.07959978759350776</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3698</v>
+        <v>3850</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007763794170054097</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03907486294778029</v>
+        <v>0.04067639673598859</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5468</v>
+        <v>6736</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01041949787698604</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03506413719704914</v>
+        <v>0.0431962163873285</v>
       </c>
     </row>
     <row r="37">
@@ -2963,19 +2963,19 @@
         <v>11044</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6266</v>
+        <v>6342</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17789</v>
+        <v>17344</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1802299155924881</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1022512596008494</v>
+        <v>0.1034912888876295</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2903022979921098</v>
+        <v>0.2830399410663784</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>29</v>
@@ -2984,19 +2984,19 @@
         <v>26546</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>18953</v>
+        <v>19379</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>35451</v>
+        <v>35521</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2804613737323158</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2002380835371075</v>
+        <v>0.2047488018452454</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3745460303504304</v>
+        <v>0.3752862302323545</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>41</v>
@@ -3005,19 +3005,19 @@
         <v>37590</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28400</v>
+        <v>28406</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>48390</v>
+        <v>48692</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2410710664431272</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1821310414592416</v>
+        <v>0.1821753813898316</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3103305132561885</v>
+        <v>0.3122726684271188</v>
       </c>
     </row>
     <row r="38">
@@ -3034,19 +3034,19 @@
         <v>48506</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>41197</v>
+        <v>42074</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>53881</v>
+        <v>53890</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7915669068143528</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6722862506589558</v>
+        <v>0.6866043460487603</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8792703944977658</v>
+        <v>0.8794227226031549</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>71</v>
@@ -3055,19 +3055,19 @@
         <v>65576</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>56335</v>
+        <v>55671</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>73564</v>
+        <v>72799</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6928310764599035</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5951876901803845</v>
+        <v>0.5881799060242838</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7772197824414816</v>
+        <v>0.7691373442030542</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>122</v>
@@ -3076,19 +3076,19 @@
         <v>114083</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>103033</v>
+        <v>102604</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>123669</v>
+        <v>123630</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7316336118145154</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6607682936306185</v>
+        <v>0.6580167590533111</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7931110172300269</v>
+        <v>0.7928577498321864</v>
       </c>
     </row>
     <row r="39">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5034</v>
+        <v>4429</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01676487782883497</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.088898228525746</v>
+        <v>0.07820425365123557</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4535</v>
+        <v>5790</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00586909550605788</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0280329296271172</v>
+        <v>0.0357922469988514</v>
       </c>
     </row>
     <row r="41">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8483</v>
+        <v>7359</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02300055346271777</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08069323270634006</v>
+        <v>0.07000146961544339</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8391</v>
+        <v>8774</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01494845512098701</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05187482525232693</v>
+        <v>0.05424449985100426</v>
       </c>
     </row>
     <row r="42">
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7195</v>
+        <v>7623</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02567662784693713</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1270514869677105</v>
+        <v>0.1346058843098822</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6876</v>
+        <v>7058</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01897627550429325</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06540383497880434</v>
+        <v>0.06713728100898</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3348,19 +3348,19 @@
         <v>3449</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>904</v>
+        <v>941</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>9197</v>
+        <v>10175</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02132195366698036</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.005586428429388425</v>
+        <v>0.005814246889770288</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05685404642869413</v>
+        <v>0.06290284336065653</v>
       </c>
     </row>
     <row r="43">
@@ -3377,19 +3377,19 @@
         <v>13103</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7486</v>
+        <v>7287</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19724</v>
+        <v>20335</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2313860418615082</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1322003774303917</v>
+        <v>0.1286757820403293</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3483101647214646</v>
+        <v>0.359082811778511</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>19</v>
@@ -3398,19 +3398,19 @@
         <v>21988</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>14064</v>
+        <v>13695</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32764</v>
+        <v>32214</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2091563431776617</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1337772992240421</v>
+        <v>0.1302673745821689</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3116550966854204</v>
+        <v>0.3064279825408234</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>32</v>
@@ -3419,19 +3419,19 @@
         <v>35092</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>25244</v>
+        <v>25202</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>46131</v>
+        <v>47128</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2169385785138467</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1560601884311412</v>
+        <v>0.1557988278332408</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.285182971210002</v>
+        <v>0.2913515106595564</v>
       </c>
     </row>
     <row r="44">
@@ -3448,19 +3448,19 @@
         <v>41122</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34047</v>
+        <v>33783</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>47313</v>
+        <v>47441</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7261724524627197</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6012359969535169</v>
+        <v>0.5965617823750835</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8354918430310659</v>
+        <v>0.8377427970365121</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>69</v>
@@ -3469,19 +3469,19 @@
         <v>78728</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>67308</v>
+        <v>69060</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>86834</v>
+        <v>87502</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7488668278553273</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6402456153100857</v>
+        <v>0.6569053971569664</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8259775875373547</v>
+        <v>0.832330732275415</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>111</v>
@@ -3490,19 +3490,19 @@
         <v>119850</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>107872</v>
+        <v>107371</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>130040</v>
+        <v>130222</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7409219171921281</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6668708084107124</v>
+        <v>0.6637771456019299</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8039147307994726</v>
+        <v>0.8050401952264126</v>
       </c>
     </row>
     <row r="45">
@@ -3594,19 +3594,19 @@
         <v>2686</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7190</v>
+        <v>7290</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.004810227044308192</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001468336881503951</v>
+        <v>0.001489892474010832</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01287575282132472</v>
+        <v>0.01305410193323942</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3615,19 +3615,19 @@
         <v>2889</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8146</v>
+        <v>7463</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003506114334318771</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0009023749154532572</v>
+        <v>0.0008915016460693502</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.009885805107661407</v>
+        <v>0.009056997756910564</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -3636,19 +3636,19 @@
         <v>5575</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2121</v>
+        <v>2368</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>11732</v>
+        <v>10850</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004032913779798131</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001533879205615712</v>
+        <v>0.001713106147197085</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.008486130181520732</v>
+        <v>0.007848212159243128</v>
       </c>
     </row>
     <row r="47">
@@ -3665,19 +3665,19 @@
         <v>10192</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4781</v>
+        <v>5411</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18570</v>
+        <v>19016</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01825074006506551</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.008561901562776192</v>
+        <v>0.009690201618112706</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03325283153042422</v>
+        <v>0.03405096583262971</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -3686,19 +3686,19 @@
         <v>13633</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7282</v>
+        <v>7508</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>23167</v>
+        <v>22737</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01654466953488669</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.008837800102296412</v>
+        <v>0.009111796532797875</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02811473567240877</v>
+        <v>0.02759268178597524</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>23</v>
@@ -3707,19 +3707,19 @@
         <v>23825</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>14666</v>
+        <v>15613</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>34790</v>
+        <v>35641</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01723384080234115</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0106088805562506</v>
+        <v>0.01129367088285895</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02516548821322665</v>
+        <v>0.02578083302090571</v>
       </c>
     </row>
     <row r="48">
@@ -3736,19 +3736,19 @@
         <v>12590</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7123</v>
+        <v>6550</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22466</v>
+        <v>21698</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02254440817745234</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01275461620961515</v>
+        <v>0.01172941426309765</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04022904566728256</v>
+        <v>0.03885412390173782</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>10</v>
@@ -3757,19 +3757,19 @@
         <v>10196</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>4981</v>
+        <v>4923</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>17691</v>
+        <v>17955</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01237335610392392</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.006045249235230398</v>
+        <v>0.005974434996229924</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02146908670566572</v>
+        <v>0.02178995190228773</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>21</v>
@@ -3778,19 +3778,19 @@
         <v>22786</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>14709</v>
+        <v>13978</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>34772</v>
+        <v>34470</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01648197689354872</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01063941879571723</v>
+        <v>0.0101108988634877</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02515250322841318</v>
+        <v>0.02493364005403606</v>
       </c>
     </row>
     <row r="49">
@@ -3807,19 +3807,19 @@
         <v>137445</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>118751</v>
+        <v>117309</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>161035</v>
+        <v>158752</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2461211928504486</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2126452764382909</v>
+        <v>0.2100639743971352</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2883633313229093</v>
+        <v>0.2842754600606421</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>226</v>
@@ -3828,19 +3828,19 @@
         <v>229958</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>202211</v>
+        <v>205249</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>255781</v>
+        <v>257736</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2790718062582075</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2453995631148755</v>
+        <v>0.2490861319279664</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3104106898714341</v>
+        <v>0.3127824792580646</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>361</v>
@@ -3849,19 +3849,19 @@
         <v>367403</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>335069</v>
+        <v>334383</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>403305</v>
+        <v>403673</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2657613272340801</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2423728940278022</v>
+        <v>0.2418766856084048</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2917311670086036</v>
+        <v>0.2919973769631125</v>
       </c>
     </row>
     <row r="50">
@@ -3878,19 +3878,19 @@
         <v>395532</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>369564</v>
+        <v>373356</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>414502</v>
+        <v>418610</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.7082734318627253</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6617716334189434</v>
+        <v>0.668561970340009</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7422421148617749</v>
+        <v>0.7495987954508234</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>551</v>
@@ -3899,19 +3899,19 @@
         <v>567334</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>539552</v>
+        <v>541267</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>595384</v>
+        <v>595425</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6885040537686632</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6547892511287289</v>
+        <v>0.6568698685621358</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.722545431482288</v>
+        <v>0.7225947238184078</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>939</v>
@@ -3920,19 +3920,19 @@
         <v>962865</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>925878</v>
+        <v>924955</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>995718</v>
+        <v>995427</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6964899412902319</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6697348757243996</v>
+        <v>0.6690673679091247</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7202542320578068</v>
+        <v>0.7200435670893487</v>
       </c>
     </row>
     <row r="51">
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5643</v>
+        <v>4726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007350439608482363</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04403057064268007</v>
+        <v>0.0368749848008097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4767</v>
+        <v>4706</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003979742800955464</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02013878463350929</v>
+        <v>0.01988237348370227</v>
       </c>
     </row>
     <row r="6">
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6916</v>
+        <v>6260</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01856495167729562</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06372068283815069</v>
+        <v>0.05767339593426692</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5941</v>
+        <v>6781</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01518635586195076</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0463558813829535</v>
+        <v>0.05291602163241276</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4419,19 +4419,19 @@
         <v>3961</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10068</v>
+        <v>10083</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01673568117244848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00418292620144028</v>
+        <v>0.004099549007993495</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04253682295253752</v>
+        <v>0.04260114006662852</v>
       </c>
     </row>
     <row r="7">
@@ -4448,19 +4448,19 @@
         <v>45832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35110</v>
+        <v>35182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56545</v>
+        <v>56264</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4222682992669712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3234803381583073</v>
+        <v>0.3241429012804277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5209692163998111</v>
+        <v>0.5183802658627283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -4469,19 +4469,19 @@
         <v>49040</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37525</v>
+        <v>39183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60163</v>
+        <v>60964</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3826766522563517</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2928215895184357</v>
+        <v>0.3057554438142623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.46947609711795</v>
+        <v>0.4757255765776832</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -4490,19 +4490,19 @@
         <v>94872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80015</v>
+        <v>79412</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111130</v>
+        <v>111743</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4008322246155103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3380630834866411</v>
+        <v>0.3355143445768944</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4695208030721707</v>
+        <v>0.4721108194511912</v>
       </c>
     </row>
     <row r="8">
@@ -4519,19 +4519,19 @@
         <v>60691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50399</v>
+        <v>50726</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71633</v>
+        <v>71361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5591667490557332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4643399304654765</v>
+        <v>0.4673534109440003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6599822865872316</v>
+        <v>0.6574773147036302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -4540,19 +4540,19 @@
         <v>76222</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65196</v>
+        <v>64453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87858</v>
+        <v>86792</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5947865522732152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5087508310081793</v>
+        <v>0.5029491543958566</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6855870656474252</v>
+        <v>0.6772675668629201</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>136</v>
@@ -4561,19 +4561,19 @@
         <v>136913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>120378</v>
+        <v>121223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>152339</v>
+        <v>153029</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5784523514110858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5085941206519211</v>
+        <v>0.5121627679087019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6436276104874732</v>
+        <v>0.6465423916992684</v>
       </c>
     </row>
     <row r="9">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3863</v>
+        <v>4708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005618159162927572</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0236909606489326</v>
+        <v>0.02887300137040707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5531</v>
+        <v>5314</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002439594292176372</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01472828653463535</v>
+        <v>0.01415202915147802</v>
       </c>
     </row>
     <row r="11">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3816</v>
+        <v>4562</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00550064197387711</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02340090152942345</v>
+        <v>0.02797391626236922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -4749,19 +4749,19 @@
         <v>5059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11797</v>
+        <v>11286</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02381024622505551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009063351265306134</v>
+        <v>0.008974433691855806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05552351191452432</v>
+        <v>0.05312183558127734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -4770,19 +4770,19 @@
         <v>5956</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2125</v>
+        <v>2059</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12559</v>
+        <v>12492</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01585959820533886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005659501649959194</v>
+        <v>0.005482341663859359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03344454608854162</v>
+        <v>0.03326493372629381</v>
       </c>
     </row>
     <row r="12">
@@ -4799,19 +4799,19 @@
         <v>3836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9529</v>
+        <v>9304</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02352720565109757</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005951990823543728</v>
+        <v>0.005918361946445029</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.058433428326012</v>
+        <v>0.0570565262849321</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4820,19 +4820,19 @@
         <v>7704</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2955</v>
+        <v>3082</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15823</v>
+        <v>16039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03626298189067184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01390856786849497</v>
+        <v>0.01450710581987578</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07447338952967168</v>
+        <v>0.07549207166999965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -4841,19 +4841,19 @@
         <v>11541</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5975</v>
+        <v>5880</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20007</v>
+        <v>20191</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03073267808128128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01591166513594715</v>
+        <v>0.01565855986850693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05327712569750516</v>
+        <v>0.0537685399509037</v>
       </c>
     </row>
     <row r="13">
@@ -4870,19 +4870,19 @@
         <v>59084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46608</v>
+        <v>46674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72505</v>
+        <v>72167</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3623318012867487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2858207064413536</v>
+        <v>0.2862286402711083</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4446334965578465</v>
+        <v>0.4425602285489625</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -4891,19 +4891,19 @@
         <v>61086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49322</v>
+        <v>48938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75588</v>
+        <v>77148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2875191452942527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.232147857803583</v>
+        <v>0.230337749982148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3557752268310694</v>
+        <v>0.363116039956438</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -4912,19 +4912,19 @@
         <v>120170</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102134</v>
+        <v>101406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138965</v>
+        <v>139597</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3200053250639874</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2719761813914098</v>
+        <v>0.2700362256807274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3700548282329374</v>
+        <v>0.3717385142168433</v>
       </c>
     </row>
     <row r="14">
@@ -4941,19 +4941,19 @@
         <v>98332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83983</v>
+        <v>85162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111153</v>
+        <v>111118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.603022191925349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.51502502388869</v>
+        <v>0.5222567549037548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6816448162513559</v>
+        <v>0.6814323732871036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -4962,19 +4962,19 @@
         <v>138611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122704</v>
+        <v>122164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152027</v>
+        <v>150982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6524076265900199</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5775414202054824</v>
+        <v>0.5749974176220871</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.715557495924023</v>
+        <v>0.7106350957634235</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>220</v>
@@ -4983,19 +4983,19 @@
         <v>236943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218060</v>
+        <v>216478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257114</v>
+        <v>255789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6309628043572161</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5806800047194018</v>
+        <v>0.5764650057276138</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6846763582195869</v>
+        <v>0.6811477775362932</v>
       </c>
     </row>
     <row r="15">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4838</v>
+        <v>4765</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007510293542531135</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03877611852848871</v>
+        <v>0.03818934751403844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6398</v>
+        <v>6599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01092963864849983</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0380071229429452</v>
+        <v>0.03920142141441286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -5176,19 +5176,19 @@
         <v>2777</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7005</v>
+        <v>8369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009474135842049605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003004925197145559</v>
+        <v>0.003059433358892803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02390097136877714</v>
+        <v>0.02855472264613201</v>
       </c>
     </row>
     <row r="18">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11685</v>
+        <v>11512</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02655888503315255</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09365565592854029</v>
+        <v>0.09226725498481707</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5725</v>
+        <v>4347</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005646727029999169</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03401088219159061</v>
+        <v>0.02582546210911956</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -5247,19 +5247,19 @@
         <v>4264</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1163</v>
+        <v>964</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13218</v>
+        <v>13807</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01454834524027846</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003966608496221491</v>
+        <v>0.003290311605602792</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04509630903165109</v>
+        <v>0.04710503149425621</v>
       </c>
     </row>
     <row r="19">
@@ -5276,19 +5276,19 @@
         <v>48020</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36223</v>
+        <v>37112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60184</v>
+        <v>60783</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3848856746537944</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2903307190398932</v>
+        <v>0.2974588156878322</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4823812120616922</v>
+        <v>0.4871846986290492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -5297,19 +5297,19 @@
         <v>58699</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46570</v>
+        <v>47279</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72404</v>
+        <v>72596</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3486978741166915</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2766480382880602</v>
+        <v>0.2808577913026277</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4301112572142072</v>
+        <v>0.4312516562594529</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -5318,19 +5318,19 @@
         <v>106719</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89099</v>
+        <v>88946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123441</v>
+        <v>124780</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3641018311928791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3039865921997326</v>
+        <v>0.3034655543990904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4211522451634491</v>
+        <v>0.4257238051031447</v>
       </c>
     </row>
     <row r="20">
@@ -5347,19 +5347,19 @@
         <v>72494</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59828</v>
+        <v>60225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83594</v>
+        <v>83792</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.581045146770522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4795293368115618</v>
+        <v>0.4827127707081043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6700161869878035</v>
+        <v>0.671602478134117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -5368,19 +5368,19 @@
         <v>106848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92595</v>
+        <v>93000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119201</v>
+        <v>118934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6347257602048095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5500545596769855</v>
+        <v>0.5524613175402392</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7081023539397472</v>
+        <v>0.7065208610644407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -5389,19 +5389,19 @@
         <v>179342</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161081</v>
+        <v>160789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>195341</v>
+        <v>196516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6118756877247927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5495745156222315</v>
+        <v>0.5485775670425349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6664619191075928</v>
+        <v>0.6704705321881773</v>
       </c>
     </row>
     <row r="21">
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5181</v>
+        <v>6184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01025635290020176</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05240176877611729</v>
+        <v>0.06254940117838058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -5561,19 +5561,19 @@
         <v>4919</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14622</v>
+        <v>14335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03787770220103661</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00760140791563422</v>
+        <v>0.007584756881057341</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1126026290779545</v>
+        <v>0.1103944290616692</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -5582,19 +5582,19 @@
         <v>5933</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1976</v>
+        <v>1959</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15383</v>
+        <v>14900</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02593767524867785</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008639652745161873</v>
+        <v>0.008566506539147886</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06725375984886191</v>
+        <v>0.0651453274235812</v>
       </c>
     </row>
     <row r="24">
@@ -5611,19 +5611,19 @@
         <v>3134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8320</v>
+        <v>8794</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03170154381682161</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009879152032949848</v>
+        <v>0.009899182380547301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08415257161235322</v>
+        <v>0.08894789818454309</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -5632,19 +5632,19 @@
         <v>3270</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9565</v>
+        <v>9749</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02518242114222913</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007426660950833172</v>
+        <v>0.007459846568924902</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07366245120323138</v>
+        <v>0.07508076239042474</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -5653,19 +5653,19 @@
         <v>6404</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2215</v>
+        <v>2948</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13273</v>
+        <v>13731</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02800047682780039</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009682880958952967</v>
+        <v>0.01288931136118068</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05803123653360796</v>
+        <v>0.06003441028616113</v>
       </c>
     </row>
     <row r="25">
@@ -5682,19 +5682,19 @@
         <v>31958</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23645</v>
+        <v>23278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43269</v>
+        <v>41617</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3232233786730388</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2391485764167022</v>
+        <v>0.2354369091210793</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4376268556770551</v>
+        <v>0.4209164347231975</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -5703,19 +5703,19 @@
         <v>33983</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24284</v>
+        <v>24930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45699</v>
+        <v>46020</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2617073094232282</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1870105153281327</v>
+        <v>0.1919831152424494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3519319615384928</v>
+        <v>0.3544028323130051</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -5724,19 +5724,19 @@
         <v>65942</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52154</v>
+        <v>52351</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81897</v>
+        <v>81426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.288299186483474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2280189007928849</v>
+        <v>0.2288801453061877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3580559861360528</v>
+        <v>0.3559996598802034</v>
       </c>
     </row>
     <row r="26">
@@ -5753,19 +5753,19 @@
         <v>62766</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51962</v>
+        <v>52454</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71597</v>
+        <v>71578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6348187246099378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5255501846536169</v>
+        <v>0.5305251341726573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7241402497250129</v>
+        <v>0.7239489595433812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -5774,19 +5774,19 @@
         <v>87681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75137</v>
+        <v>75503</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>99018</v>
+        <v>98771</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6752325672335061</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5786321254931369</v>
+        <v>0.5814504455233379</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7625376684948071</v>
+        <v>0.7606397256272783</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -5795,19 +5795,19 @@
         <v>150447</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>133912</v>
+        <v>134824</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164741</v>
+        <v>165530</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6577626614400478</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5854704671946542</v>
+        <v>0.5894585335752044</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7202532230950369</v>
+        <v>0.7237055972799131</v>
       </c>
     </row>
     <row r="27">
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6934</v>
+        <v>5476</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01456223199634592</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09301468459228535</v>
+        <v>0.0734639177036905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6014</v>
+        <v>6053</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006075456405969271</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03365821134802621</v>
+        <v>0.0338760195320995</v>
       </c>
     </row>
     <row r="29">
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4993</v>
+        <v>6599</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01319538223081008</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06697905895115355</v>
+        <v>0.0885302178014454</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5143</v>
+        <v>5467</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009837337781726553</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04939487404493417</v>
+        <v>0.0525018745364173</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6953</v>
+        <v>7393</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01123833542170602</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03891341709875863</v>
+        <v>0.04137623668725482</v>
       </c>
     </row>
     <row r="30">
@@ -6080,19 +6080,19 @@
         <v>23583</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16398</v>
+        <v>16141</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32088</v>
+        <v>31668</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3163657231916509</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2199815737926523</v>
+        <v>0.2165393857760468</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4304711551646082</v>
+        <v>0.4248290303594993</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -6101,19 +6101,19 @@
         <v>29409</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20947</v>
+        <v>20626</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40948</v>
+        <v>39210</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2824357206186476</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2011633630519854</v>
+        <v>0.1980841145542416</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3932509609680329</v>
+        <v>0.3765573470259824</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>50</v>
@@ -6122,19 +6122,19 @@
         <v>52992</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42145</v>
+        <v>40560</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>66105</v>
+        <v>66556</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2965915348879459</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2358814384450964</v>
+        <v>0.2270133864322314</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3699832249526168</v>
+        <v>0.3725075273669367</v>
       </c>
     </row>
     <row r="32">
@@ -6151,19 +6151,19 @@
         <v>48890</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40628</v>
+        <v>40306</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56824</v>
+        <v>56198</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6558766625811931</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5450405580850682</v>
+        <v>0.5407126262735338</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7623130769404928</v>
+        <v>0.7539053460878899</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>70</v>
@@ -6172,19 +6172,19 @@
         <v>73694</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>62284</v>
+        <v>63693</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>81672</v>
+        <v>82704</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7077269415996259</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5981496199165576</v>
+        <v>0.6116812330663794</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7843460502287612</v>
+        <v>0.7942494573012544</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>116</v>
@@ -6193,19 +6193,19 @@
         <v>122585</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>109577</v>
+        <v>108957</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>133998</v>
+        <v>134560</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6860946732843788</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6132900287223444</v>
+        <v>0.6098226489852674</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.749975994460782</v>
+        <v>0.753120226910256</v>
       </c>
     </row>
     <row r="33">
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5430</v>
+        <v>5087</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01025961405787852</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05894754282381665</v>
+        <v>0.0552176053652321</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4738</v>
+        <v>5455</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006359536969502366</v>
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03187848190023759</v>
+        <v>0.03670503365649989</v>
       </c>
     </row>
     <row r="36">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4897</v>
+        <v>4946</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0104923385713557</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05316176323292122</v>
+        <v>0.0536837510251067</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4301</v>
+        <v>4830</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006503793872229722</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02893761858457366</v>
+        <v>0.03250104493851678</v>
       </c>
     </row>
     <row r="37">
@@ -6470,19 +6470,19 @@
         <v>17552</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10425</v>
+        <v>10342</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26325</v>
+        <v>26699</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3106756511015653</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.184529747399741</v>
+        <v>0.1830583899272781</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4659543723330684</v>
+        <v>0.472573554141519</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>25</v>
@@ -6491,19 +6491,19 @@
         <v>25449</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16612</v>
+        <v>16761</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34048</v>
+        <v>34107</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2762456803254235</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1803219104664433</v>
+        <v>0.1819389243943729</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3695927389105734</v>
+        <v>0.3702336121468284</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -6512,19 +6512,19 @@
         <v>43001</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>32849</v>
+        <v>31704</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>55383</v>
+        <v>55344</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2893338471336453</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2210225153146154</v>
+        <v>0.2133186098964297</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.372648544322194</v>
+        <v>0.3723853597373702</v>
       </c>
     </row>
     <row r="38">
@@ -6541,19 +6541,19 @@
         <v>38945</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30172</v>
+        <v>29798</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>46072</v>
+        <v>46155</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6893243488984346</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5340456276669311</v>
+        <v>0.527426445858481</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.815470252600259</v>
+        <v>0.8169416100727218</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>64</v>
@@ -6562,19 +6562,19 @@
         <v>64763</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55585</v>
+        <v>55683</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>73458</v>
+        <v>73307</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7030023670453422</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6033662306806449</v>
+        <v>0.6044407162843421</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7973807767968082</v>
+        <v>0.7957459242536633</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>98</v>
@@ -6583,19 +6583,19 @@
         <v>103708</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>91121</v>
+        <v>90735</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>114199</v>
+        <v>114959</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6978028220246226</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6131068355571337</v>
+        <v>0.6105121618924949</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7683886139875226</v>
+        <v>0.7735016072967259</v>
       </c>
     </row>
     <row r="39">
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5194</v>
+        <v>5622</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.007303271614017173</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03650154965229338</v>
+        <v>0.03951282300622163</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5209</v>
+        <v>6206</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.004731901806260706</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02371672365319926</v>
+        <v>0.02825672465363813</v>
       </c>
     </row>
     <row r="42">
@@ -6844,19 +6844,19 @@
         <v>20517</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>13159</v>
+        <v>13440</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>29765</v>
+        <v>30515</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2653461654750244</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1701799730225196</v>
+        <v>0.1738103702597752</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3849432001362289</v>
+        <v>0.3946396295556739</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>42</v>
@@ -6865,19 +6865,19 @@
         <v>46286</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>35220</v>
+        <v>35428</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>57918</v>
+        <v>57081</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3252933832724965</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2475177256419178</v>
+        <v>0.2489848515926648</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4070357913543038</v>
+        <v>0.4011601969870643</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>61</v>
@@ -6886,19 +6886,19 @@
         <v>66804</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>54528</v>
+        <v>53268</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>81064</v>
+        <v>82046</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3041868882590059</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2482921837558004</v>
+        <v>0.2425506600863313</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3691195960863439</v>
+        <v>0.3735934424327357</v>
       </c>
     </row>
     <row r="44">
@@ -6915,19 +6915,19 @@
         <v>56806</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>47558</v>
+        <v>46808</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>64164</v>
+        <v>63883</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7346538345249756</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6150567998637714</v>
+        <v>0.6053603704443264</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8298200269774804</v>
+        <v>0.8261896297402249</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>86</v>
@@ -6936,19 +6936,19 @@
         <v>94965</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>83184</v>
+        <v>84195</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>106042</v>
+        <v>106328</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6674033451134863</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5846031682695469</v>
+        <v>0.5917095960450558</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7452460180135123</v>
+        <v>0.7472550802968728</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>136</v>
@@ -6957,19 +6957,19 @@
         <v>151771</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>136912</v>
+        <v>136489</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>163991</v>
+        <v>165525</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6910812099347334</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6234227032143983</v>
+        <v>0.6214930888659392</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7467216826324365</v>
+        <v>0.7537071865732597</v>
       </c>
     </row>
     <row r="45">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6170</v>
+        <v>6859</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.002844837587779353</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.008768980674684212</v>
+        <v>0.009748453228568228</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>7643</v>
+        <v>7121</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.001190777853282419</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.004547068655475032</v>
+        <v>0.004236504719340651</v>
       </c>
     </row>
     <row r="47">
@@ -7124,19 +7124,19 @@
         <v>3832</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8846</v>
+        <v>9037</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005445785365816486</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.001413192483732638</v>
+        <v>0.001405994054069239</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01257216660979993</v>
+        <v>0.01284366184470986</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>14</v>
@@ -7145,19 +7145,19 @@
         <v>15768</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8776</v>
+        <v>8595</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25072</v>
+        <v>26169</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01613330210413255</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00897967192835487</v>
+        <v>0.008794632947231384</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02565333089805257</v>
+        <v>0.02677588287320817</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>18</v>
@@ -7166,19 +7166,19 @@
         <v>19599</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>12102</v>
+        <v>11942</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>32522</v>
+        <v>32228</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0116597749357482</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.007199655968378723</v>
+        <v>0.007104167639124759</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01934727377018557</v>
+        <v>0.01917253989077149</v>
       </c>
     </row>
     <row r="48">
@@ -7195,19 +7195,19 @@
         <v>12299</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6127</v>
+        <v>5940</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>21585</v>
+        <v>21702</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01748075570596011</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.00870754172319568</v>
+        <v>0.008441908871885383</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03067846670361295</v>
+        <v>0.03084392022925511</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>14</v>
@@ -7216,19 +7216,19 @@
         <v>14838</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>8708</v>
+        <v>8501</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>25781</v>
+        <v>24971</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01518169643434616</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.0089097895960166</v>
+        <v>0.008697930437334295</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0263783406020702</v>
+        <v>0.02554955299879202</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>25</v>
@@ -7237,19 +7237,19 @@
         <v>27137</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>17910</v>
+        <v>16981</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>39519</v>
+        <v>38702</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01614402513661788</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01065448616117119</v>
+        <v>0.01010192784335425</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02350982487295522</v>
+        <v>0.02302408977430429</v>
       </c>
     </row>
     <row r="49">
@@ -7266,19 +7266,19 @@
         <v>246546</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>221546</v>
+        <v>221914</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>275584</v>
+        <v>273206</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3504054179822344</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3148740569706873</v>
+        <v>0.3153971764056946</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3916761321809875</v>
+        <v>0.3882957708331743</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>283</v>
@@ -7287,19 +7287,19 @@
         <v>303954</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>276617</v>
+        <v>276462</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>333756</v>
+        <v>335222</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3109995361485667</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2830291364865722</v>
+        <v>0.2828704876801755</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3414931199165714</v>
+        <v>0.3429925384612277</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>511</v>
@@ -7308,19 +7308,19 @@
         <v>550499</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>511291</v>
+        <v>510305</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>590595</v>
+        <v>591178</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3274938525827163</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3041685623053023</v>
+        <v>0.3035822406628909</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3513465513102827</v>
+        <v>0.3516933838304874</v>
       </c>
     </row>
     <row r="50">
@@ -7337,19 +7337,19 @@
         <v>438923</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>408154</v>
+        <v>413738</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>466028</v>
+        <v>465636</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6238232033582096</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5800919107055519</v>
+        <v>0.5880283322848162</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6623453606412495</v>
+        <v>0.6617883301685312</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>595</v>
@@ -7358,19 +7358,19 @@
         <v>642785</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>615217</v>
+        <v>613570</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>672711</v>
+        <v>673307</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6576854653129546</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6294785417194968</v>
+        <v>0.6277933876088678</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.6883055222952402</v>
+        <v>0.6889147653127543</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1010</v>
@@ -7379,19 +7379,19 @@
         <v>1081708</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1041752</v>
+        <v>1039349</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1121500</v>
+        <v>1124818</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6435115694916352</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6197417166478018</v>
+        <v>0.618311737245701</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6671837256310273</v>
+        <v>0.6691577157588229</v>
       </c>
     </row>
     <row r="51">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5500</v>
+        <v>3862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01024733614915387</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05956962400638211</v>
+        <v>0.04182748861837259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -7763,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4845</v>
+        <v>5250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005117457522818107</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02620552202514033</v>
+        <v>0.02839901475174023</v>
       </c>
     </row>
     <row r="5">
@@ -7789,19 +7789,19 @@
         <v>5095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1953</v>
+        <v>1896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11313</v>
+        <v>10479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05505256142160059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02110752786119674</v>
+        <v>0.02049022630394252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1222432087843764</v>
+        <v>0.1132280077610352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8573</v>
+        <v>8145</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02819074714751411</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09285995998580683</v>
+        <v>0.08821751835530885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -7831,19 +7831,19 @@
         <v>7698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3555</v>
+        <v>3071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15712</v>
+        <v>14968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04163793428996139</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01922751208737757</v>
+        <v>0.01661200491527414</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08498989028368951</v>
+        <v>0.08096492997291518</v>
       </c>
     </row>
     <row r="6">
@@ -7860,19 +7860,19 @@
         <v>3037</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8235</v>
+        <v>8181</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03281188745493986</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01026150086847308</v>
+        <v>0.01043662249392767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08897547436386342</v>
+        <v>0.08839270731652635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -7881,19 +7881,19 @@
         <v>2689</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7959</v>
+        <v>7021</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02913033660185762</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00887220500362044</v>
+        <v>0.008880616075272138</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08621083300162272</v>
+        <v>0.07604844616758731</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -7902,19 +7902,19 @@
         <v>5726</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1930</v>
+        <v>2102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11781</v>
+        <v>11859</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03097334328750775</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01043740470363393</v>
+        <v>0.01136841594784238</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06372601197071009</v>
+        <v>0.06414534120267348</v>
       </c>
     </row>
     <row r="7">
@@ -7931,19 +7931,19 @@
         <v>31221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21885</v>
+        <v>21809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41002</v>
+        <v>41197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3373525650808741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2364756501749799</v>
+        <v>0.2356520497610458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4430344593715048</v>
+        <v>0.4451389456408109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -7952,19 +7952,19 @@
         <v>28195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20158</v>
+        <v>19084</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36910</v>
+        <v>36591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3053963827863668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.218344928387975</v>
+        <v>0.2067023217845347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3997849128184892</v>
+        <v>0.3963311679186113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -7973,19 +7973,19 @@
         <v>59417</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47617</v>
+        <v>45338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73049</v>
+        <v>70930</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3213938414571667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2575653935768943</v>
+        <v>0.2452410902802837</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3951310502234961</v>
+        <v>0.3836679443110039</v>
       </c>
     </row>
     <row r="8">
@@ -8002,19 +8002,19 @@
         <v>53195</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44074</v>
+        <v>42936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63187</v>
+        <v>62736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5747829860425855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4762244187568433</v>
+        <v>0.4639334665921218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6827491991463702</v>
+        <v>0.6778774139345587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -8023,19 +8023,19 @@
         <v>57890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49155</v>
+        <v>49189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66418</v>
+        <v>67488</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6270351973151076</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5324206420591081</v>
+        <v>0.5327873160130356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7193980731862264</v>
+        <v>0.7309880403493593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -8044,19 +8044,19 @@
         <v>111086</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95943</v>
+        <v>97837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123481</v>
+        <v>123665</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6008774234425461</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5189687013919863</v>
+        <v>0.5292145812698591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6679206824719243</v>
+        <v>0.6689189526358196</v>
       </c>
     </row>
     <row r="9">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4878</v>
+        <v>4912</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01012629750391041</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05162346914750818</v>
+        <v>0.05198137443283292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5188</v>
+        <v>4810</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00407173952314895</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02207503983647067</v>
+        <v>0.02046647279951084</v>
       </c>
     </row>
     <row r="11">
@@ -8214,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6587</v>
+        <v>6737</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0199110843094139</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0697046536242088</v>
+        <v>0.07129080429292227</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -8232,19 +8232,19 @@
         <v>12916</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6731</v>
+        <v>7154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21033</v>
+        <v>21845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09191794503103005</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04789793035312837</v>
+        <v>0.05091281512530474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1496789010493143</v>
+        <v>0.1554563333048474</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -8253,19 +8253,19 @@
         <v>14798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8377</v>
+        <v>7973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23475</v>
+        <v>23693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06296430421365673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03564260120329528</v>
+        <v>0.03392346257132495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09988512295793213</v>
+        <v>0.1008133038787108</v>
       </c>
     </row>
     <row r="12">
@@ -8282,19 +8282,19 @@
         <v>8021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3766</v>
+        <v>3578</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16238</v>
+        <v>15440</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08488249729707736</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03985647493091261</v>
+        <v>0.03786083888277723</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1718258473005892</v>
+        <v>0.1633862174383283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -8303,19 +8303,19 @@
         <v>2826</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7608</v>
+        <v>7610</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02011232180605139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.006359623405713334</v>
+        <v>0.006388884091921562</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05414262213862379</v>
+        <v>0.05415601852595456</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -8324,19 +8324,19 @@
         <v>10848</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5703</v>
+        <v>4975</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19524</v>
+        <v>19826</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04615612343900379</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02426599376017628</v>
+        <v>0.02116952303988536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08307287778675668</v>
+        <v>0.08435827924300927</v>
       </c>
     </row>
     <row r="13">
@@ -8353,19 +8353,19 @@
         <v>21144</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13691</v>
+        <v>13821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30444</v>
+        <v>30365</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2237389862410627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1448763471513757</v>
+        <v>0.1462562607763261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3221546848879399</v>
+        <v>0.3213171263567615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -8374,19 +8374,19 @@
         <v>33228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24716</v>
+        <v>24260</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44432</v>
+        <v>44205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2364671090682726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1758908413888747</v>
+        <v>0.1726412290813714</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3161944999060503</v>
+        <v>0.3145804785687039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -8395,19 +8395,19 @@
         <v>54372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42854</v>
+        <v>43045</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67351</v>
+        <v>68212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2313491870685455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1823403196623195</v>
+        <v>0.183155442906825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2865728848480292</v>
+        <v>0.2902379487357264</v>
       </c>
     </row>
     <row r="14">
@@ -8424,19 +8424,19 @@
         <v>62497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52328</v>
+        <v>52443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70571</v>
+        <v>71211</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6613411346485356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5537336276665972</v>
+        <v>0.5549452331417071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7467748338793302</v>
+        <v>0.7535524443102077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -8445,19 +8445,19 @@
         <v>91549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80069</v>
+        <v>80471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102410</v>
+        <v>102057</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.651502624094646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5698024634012393</v>
+        <v>0.5726677202188515</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7287949123907955</v>
+        <v>0.7262780370982537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>150</v>
@@ -8466,19 +8466,19 @@
         <v>154047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>139425</v>
+        <v>138607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168936</v>
+        <v>168055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6554586457556451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5932467368339547</v>
+        <v>0.5897629578505739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7188115246489453</v>
+        <v>0.7150651881138493</v>
       </c>
     </row>
     <row r="15">
@@ -8630,19 +8630,19 @@
         <v>7894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3661</v>
+        <v>3444</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16098</v>
+        <v>15482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05551547342441657</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02574713803867555</v>
+        <v>0.02421806977975048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1132155309123044</v>
+        <v>0.1088788491601135</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -8651,19 +8651,19 @@
         <v>7894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3640</v>
+        <v>3376</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15902</v>
+        <v>15551</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03187389313841069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01469873590854265</v>
+        <v>0.01363358512556241</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06420828316514939</v>
+        <v>0.06279102737061749</v>
       </c>
     </row>
     <row r="18">
@@ -8680,19 +8680,19 @@
         <v>6309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2043</v>
+        <v>2379</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14488</v>
+        <v>13820</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05981565685288127</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01937556857412716</v>
+        <v>0.02255725861898866</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1373681679040683</v>
+        <v>0.1310379963557833</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -8701,19 +8701,19 @@
         <v>10769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5252</v>
+        <v>5331</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17895</v>
+        <v>19182</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07573614619729595</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03693918945985612</v>
+        <v>0.0374929844741106</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1258508324772377</v>
+        <v>0.1348998970532509</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>15</v>
@@ -8722,19 +8722,19 @@
         <v>17078</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10137</v>
+        <v>9502</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27932</v>
+        <v>26836</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06895631520943769</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04093214762403052</v>
+        <v>0.03836814879755411</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1127828113479807</v>
+        <v>0.1083582184168778</v>
       </c>
     </row>
     <row r="19">
@@ -8751,19 +8751,19 @@
         <v>34684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25726</v>
+        <v>25518</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45571</v>
+        <v>47253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3288591208996349</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.243920889340943</v>
+        <v>0.2419546912514529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4320908615836548</v>
+        <v>0.4480376486311664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -8772,19 +8772,19 @@
         <v>44078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33886</v>
+        <v>33416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56329</v>
+        <v>55340</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3099865590955335</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2383097560503947</v>
+        <v>0.2350062832593847</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3961485121544683</v>
+        <v>0.3891941189961665</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>74</v>
@@ -8793,19 +8793,19 @@
         <v>78761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63185</v>
+        <v>64011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95034</v>
+        <v>95369</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3180235469400438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2551282887094786</v>
+        <v>0.2584652330373909</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3837272318644691</v>
+        <v>0.3850806589357118</v>
       </c>
     </row>
     <row r="20">
@@ -8822,19 +8822,19 @@
         <v>64475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53176</v>
+        <v>52226</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74348</v>
+        <v>74072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6113252222474838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5041981867316233</v>
+        <v>0.4951881608124186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.70494404709452</v>
+        <v>0.702328031580903</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -8843,19 +8843,19 @@
         <v>79451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67570</v>
+        <v>66709</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90672</v>
+        <v>91383</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.558761821282754</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4752047097614256</v>
+        <v>0.4691506229506291</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6376746990454495</v>
+        <v>0.6426742047182842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -8864,19 +8864,19 @@
         <v>143926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127837</v>
+        <v>127387</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>159429</v>
+        <v>158996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5811462447121077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5161826435857156</v>
+        <v>0.5143645323520877</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6437453537082649</v>
+        <v>0.6419957657436377</v>
       </c>
     </row>
     <row r="21">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5262</v>
+        <v>4833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01061160097231682</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05899031084971634</v>
+        <v>0.05418123715547495</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5428</v>
+        <v>4783</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004716695396287419</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02704474115616137</v>
+        <v>0.02383135161101793</v>
       </c>
     </row>
     <row r="23">
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5609</v>
+        <v>5488</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01111859154414611</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06287567763420147</v>
+        <v>0.06152125576239792</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5478</v>
+        <v>4933</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004942045002095884</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02729280935974949</v>
+        <v>0.02457762287378875</v>
       </c>
     </row>
     <row r="24">
@@ -9094,19 +9094,19 @@
         <v>4028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1029</v>
+        <v>1050</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10793</v>
+        <v>12457</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04515275380073434</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01153250413045913</v>
+        <v>0.01177364651222229</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.120986126647368</v>
+        <v>0.1396486765859693</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -9115,19 +9115,19 @@
         <v>4530</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10350</v>
+        <v>10335</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04062921663727059</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009863993896456848</v>
+        <v>0.01043553163972972</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09283712729159212</v>
+        <v>0.09270037609328668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -9136,19 +9136,19 @@
         <v>8558</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3611</v>
+        <v>3394</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16677</v>
+        <v>16589</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04263986017442446</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01799273195814522</v>
+        <v>0.01691243379393634</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08309833805776823</v>
+        <v>0.08265883147141986</v>
       </c>
     </row>
     <row r="25">
@@ -9165,19 +9165,19 @@
         <v>16953</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10449</v>
+        <v>9990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25011</v>
+        <v>25908</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1900439185677617</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1171386172262226</v>
+        <v>0.1119890425375367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2803755719639712</v>
+        <v>0.2904275719225075</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -9186,19 +9186,19 @@
         <v>33271</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24279</v>
+        <v>23549</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45277</v>
+        <v>43272</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2984223807028659</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2177693202649594</v>
+        <v>0.2112214867883867</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4061096233147351</v>
+        <v>0.3881313254152861</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -9207,19 +9207,19 @@
         <v>50224</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38341</v>
+        <v>38586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64870</v>
+        <v>64548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2502498010192793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.191039310039652</v>
+        <v>0.1922608556710929</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3232249658440973</v>
+        <v>0.3216206344066716</v>
       </c>
     </row>
     <row r="26">
@@ -9236,19 +9236,19 @@
         <v>66287</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57266</v>
+        <v>56491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>74068</v>
+        <v>74131</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.743073135115041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6419574633648344</v>
+        <v>0.6332596883404877</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8303029902879837</v>
+        <v>0.8310119612086083</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -9257,19 +9257,19 @@
         <v>73688</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62236</v>
+        <v>63071</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82832</v>
+        <v>83791</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6609484026598635</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5582292123319386</v>
+        <v>0.5657151762017433</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7429590072754524</v>
+        <v>0.7515602287343445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>127</v>
@@ -9278,19 +9278,19 @@
         <v>139975</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>123892</v>
+        <v>125626</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>151828</v>
+        <v>152316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6974515984079129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6173135026528841</v>
+        <v>0.625957075744496</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7565127374581685</v>
+        <v>0.7589420915434043</v>
       </c>
     </row>
     <row r="27">
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9031</v>
+        <v>8921</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02086571724790336</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1016588237350742</v>
+        <v>0.1004196697792269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9938</v>
+        <v>9897</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01181268043615761</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06332885644353303</v>
+        <v>0.0630700860867629</v>
       </c>
     </row>
     <row r="30">
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7506</v>
+        <v>6541</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03023612621735197</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1102486375999079</v>
+        <v>0.09607598253179832</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6469</v>
+        <v>5976</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01347167685852173</v>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07281535943797206</v>
+        <v>0.06726110255135832</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -9534,19 +9534,19 @@
         <v>3256</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9111</v>
+        <v>9860</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02074529105404562</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006067601135715183</v>
+        <v>0.006126038773906323</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05805944378826106</v>
+        <v>0.06283156824091161</v>
       </c>
     </row>
     <row r="31">
@@ -9563,19 +9563,19 @@
         <v>13037</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7416</v>
+        <v>6527</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20586</v>
+        <v>20198</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.191475495840426</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1089187013593537</v>
+        <v>0.09585803628710682</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3023498297022333</v>
+        <v>0.296655106313654</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -9584,19 +9584,19 @@
         <v>27971</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19590</v>
+        <v>19311</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37669</v>
+        <v>38090</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3148469339048668</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2205077413281555</v>
+        <v>0.2173662084275863</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4240098574239631</v>
+        <v>0.4287430391775573</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -9605,19 +9605,19 @@
         <v>41008</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30568</v>
+        <v>30505</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54605</v>
+        <v>53523</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2613196021076519</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1947875177833303</v>
+        <v>0.1943882820226212</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3479616905900282</v>
+        <v>0.3410704047428627</v>
       </c>
     </row>
     <row r="32">
@@ -9634,19 +9634,19 @@
         <v>52991</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45168</v>
+        <v>44789</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59418</v>
+        <v>59359</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7782883779422221</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6634020190032569</v>
+        <v>0.6578354460552848</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8726971724286693</v>
+        <v>0.87182391495815</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>51</v>
@@ -9655,19 +9655,19 @@
         <v>57819</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47007</v>
+        <v>47526</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66369</v>
+        <v>66967</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6508156719887082</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5291107407805136</v>
+        <v>0.5349605222410917</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7470518863035935</v>
+        <v>0.7537806332464012</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>98</v>
@@ -9676,19 +9676,19 @@
         <v>110810</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>97786</v>
+        <v>97534</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>121877</v>
+        <v>121683</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7061224264021448</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6231263252581736</v>
+        <v>0.6215235171766369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7766417738782907</v>
+        <v>0.7754053836931595</v>
       </c>
     </row>
     <row r="33">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5057</v>
+        <v>4496</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0158782405083516</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08878721701363404</v>
+        <v>0.0789306809855892</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3961</v>
+        <v>4557</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006752788264330523</v>
@@ -9826,7 +9826,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02957172288556131</v>
+        <v>0.03402705841003574</v>
       </c>
     </row>
     <row r="35">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5420</v>
+        <v>5005</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01287952322581217</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07040808537774015</v>
+        <v>0.06502167507092035</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4513</v>
+        <v>6019</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007402046471149645</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03369333389846888</v>
+        <v>0.04493970056906266</v>
       </c>
     </row>
     <row r="36">
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5721</v>
+        <v>5137</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01791149806627712</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1004402540434783</v>
+        <v>0.09018580066026408</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6670</v>
+        <v>6675</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02843516178425869</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08665590627192998</v>
+        <v>0.08671200640845501</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -9948,19 +9948,19 @@
         <v>3209</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9727</v>
+        <v>8700</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02395959833532562</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007629462469190463</v>
+        <v>0.007581521623057317</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07262667070840492</v>
+        <v>0.06495654366087769</v>
       </c>
     </row>
     <row r="37">
@@ -9977,19 +9977,19 @@
         <v>15611</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9666</v>
+        <v>9373</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22803</v>
+        <v>22239</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2740661926308298</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1696869016733897</v>
+        <v>0.1645480395824332</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4003334547709216</v>
+        <v>0.3904311385383365</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -9998,19 +9998,19 @@
         <v>21368</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13891</v>
+        <v>13758</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30136</v>
+        <v>29833</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2776009407053514</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1804613306735252</v>
+        <v>0.17872963696888</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3915036065262992</v>
+        <v>0.3875629670476701</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>36</v>
@@ -10019,19 +10019,19 @@
         <v>36979</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27645</v>
+        <v>26605</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49078</v>
+        <v>48872</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2760976629774167</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2064039093662929</v>
+        <v>0.1986374655829392</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.366427823152615</v>
+        <v>0.3648943431561161</v>
       </c>
     </row>
     <row r="38">
@@ -10048,19 +10048,19 @@
         <v>39425</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>32068</v>
+        <v>32983</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>45889</v>
+        <v>46495</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6921440687945415</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.562978406061542</v>
+        <v>0.5790467241056318</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8056251247523494</v>
+        <v>0.8162680454214789</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>50</v>
@@ -10069,19 +10069,19 @@
         <v>52426</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>43024</v>
+        <v>43657</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>60413</v>
+        <v>59527</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6810843742845778</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5589315023206421</v>
+        <v>0.5671627042569819</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7848415752631135</v>
+        <v>0.7733237360636898</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>86</v>
@@ -10090,19 +10090,19 @@
         <v>91852</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>80047</v>
+        <v>80641</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>102210</v>
+        <v>103084</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6857879039517775</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5976541013269696</v>
+        <v>0.6020849693807777</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.763129283077206</v>
+        <v>0.7696477758728432</v>
       </c>
     </row>
     <row r="39">
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4031</v>
+        <v>3357</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01818361331567581</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09018476410302119</v>
+        <v>0.07510910318983205</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8259</v>
+        <v>6512</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0132575296252734</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08517229129077329</v>
+        <v>0.0671620192163731</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6773</v>
+        <v>7077</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01481183117568132</v>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04781354253236069</v>
+        <v>0.04995703322208613</v>
       </c>
     </row>
     <row r="41">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6559</v>
+        <v>7662</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04733664141185224</v>
@@ -10277,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1467425718106028</v>
+        <v>0.1714178119457953</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7672</v>
+        <v>9740</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02611991384923064</v>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07911804682994361</v>
+        <v>0.1004540258126597</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -10307,19 +10307,19 @@
         <v>4649</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10950</v>
+        <v>12274</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0328143174805403</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009057084810270486</v>
+        <v>0.009237402724950983</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07729518788820898</v>
+        <v>0.08664278442806703</v>
       </c>
     </row>
     <row r="42">
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5522</v>
+        <v>5509</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04048598454491691</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1235372263648548</v>
+        <v>0.123253737504536</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6423</v>
+        <v>6404</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0127743320054749</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04534311487332081</v>
+        <v>0.04520643227523605</v>
       </c>
     </row>
     <row r="43">
@@ -10399,19 +10399,19 @@
         <v>8333</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>4143</v>
+        <v>4208</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>13682</v>
+        <v>14107</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1864222161491903</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09269846402052703</v>
+        <v>0.09414175360473702</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3061014517646419</v>
+        <v>0.3156055349890392</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -10420,19 +10420,19 @@
         <v>18005</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>11221</v>
+        <v>10302</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>27941</v>
+        <v>28057</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1856878283523415</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1157210059736324</v>
+        <v>0.1062447542173072</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2881653044577603</v>
+        <v>0.2893565955430061</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>24</v>
@@ -10441,19 +10441,19 @@
         <v>26338</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>17532</v>
+        <v>18386</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>37605</v>
+        <v>37035</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1859195459119653</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.123758792281465</v>
+        <v>0.1297886014109308</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2654543991423948</v>
+        <v>0.2614362662771598</v>
       </c>
     </row>
     <row r="44">
@@ -10470,19 +10470,19 @@
         <v>31626</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25560</v>
+        <v>25503</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>36870</v>
+        <v>36579</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7075715445783648</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5718433475257733</v>
+        <v>0.5705798228909654</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8248986379408541</v>
+        <v>0.8183710324430067</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>55</v>
@@ -10491,19 +10491,19 @@
         <v>75140</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>64280</v>
+        <v>63951</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>83043</v>
+        <v>83321</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7749347281731545</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6629320623813945</v>
+        <v>0.6595386265880083</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8564384981775054</v>
+        <v>0.8593093451494432</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>92</v>
@@ -10512,19 +10512,19 @@
         <v>106767</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>96004</v>
+        <v>94926</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>116224</v>
+        <v>116123</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7536799734263382</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6777003904177765</v>
+        <v>0.6700900145309253</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8204358745377441</v>
+        <v>0.8197275397244691</v>
       </c>
     </row>
     <row r="45">
@@ -10616,19 +10616,19 @@
         <v>3621</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8943</v>
+        <v>8909</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.006565695977468221</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001692978084031859</v>
+        <v>0.001711785526025678</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01621671296148254</v>
+        <v>0.01615529083179545</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7091</v>
+        <v>8830</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002978188307501889</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.009463989240561238</v>
+        <v>0.01178413934318498</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -10658,19 +10658,19 @@
         <v>5852</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2576</v>
+        <v>2232</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12587</v>
+        <v>12687</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.004499125419936563</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001980521530913754</v>
+        <v>0.001716237606082064</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.009676650476950575</v>
+        <v>0.009753819959680795</v>
       </c>
     </row>
     <row r="47">
@@ -10687,19 +10687,19 @@
         <v>10084</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5329</v>
+        <v>4460</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>17321</v>
+        <v>17239</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01828632848954022</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.009662700608866972</v>
+        <v>0.008088145073686263</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03140860721579695</v>
+        <v>0.03126031619481918</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>25</v>
@@ -10708,19 +10708,19 @@
         <v>28791</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>19725</v>
+        <v>19656</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>43234</v>
+        <v>42080</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03842314931591422</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0263245751884736</v>
+        <v>0.02623172285155487</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05769906711831881</v>
+        <v>0.05615883337894778</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>35</v>
@@ -10729,19 +10729,19 @@
         <v>38875</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>26500</v>
+        <v>27715</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>53157</v>
+        <v>53836</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02988606983377694</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02037218060076634</v>
+        <v>0.0213068377143946</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04086545811234452</v>
+        <v>0.0413874356351127</v>
       </c>
     </row>
     <row r="48">
@@ -10758,19 +10758,19 @@
         <v>26283</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17527</v>
+        <v>17367</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>39280</v>
+        <v>40033</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04766043982082384</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03178292317364129</v>
+        <v>0.03149213085465896</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07122902791368681</v>
+        <v>0.07259434050587429</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>23</v>
@@ -10779,19 +10779,19 @@
         <v>24200</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>16181</v>
+        <v>15860</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>36446</v>
+        <v>36277</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.03229665739171372</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02159412959454144</v>
+        <v>0.02116602006989185</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04863946248548355</v>
+        <v>0.04841476234355619</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>46</v>
@@ -10800,19 +10800,19 @@
         <v>50483</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>37874</v>
+        <v>37594</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>66404</v>
+        <v>66504</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03881018963568093</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02911683127853222</v>
+        <v>0.02890149271430267</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05104945554130856</v>
+        <v>0.05112683282206947</v>
       </c>
     </row>
     <row r="49">
@@ -10829,19 +10829,19 @@
         <v>140982</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>119648</v>
+        <v>118903</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>160745</v>
+        <v>161964</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2556496495535676</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2169628131188098</v>
+        <v>0.21561227689242</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.291485633377062</v>
+        <v>0.2936974915823153</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>197</v>
@@ -10850,19 +10850,19 @@
         <v>206117</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>182450</v>
+        <v>181009</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>232558</v>
+        <v>231203</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2750775337706813</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2434920605696484</v>
+        <v>0.2415696675966482</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3103651058034916</v>
+        <v>0.3085567887427577</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>329</v>
@@ -10871,19 +10871,19 @@
         <v>347099</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>313971</v>
+        <v>313595</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>380612</v>
+        <v>381737</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2668410105795909</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2413727323678632</v>
+        <v>0.241084033241306</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2926043650493434</v>
+        <v>0.2934697447963109</v>
       </c>
     </row>
     <row r="50">
@@ -10900,19 +10900,19 @@
         <v>370496</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>348424</v>
+        <v>347784</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>394473</v>
+        <v>392631</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6718378861586002</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6318129935085967</v>
+        <v>0.630651891702507</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7153150183123468</v>
+        <v>0.7119759100943996</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>450</v>
@@ -10921,19 +10921,19 @@
         <v>487966</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>459588</v>
+        <v>461005</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>514915</v>
+        <v>515024</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6512244712141889</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6133518993671226</v>
+        <v>0.6152433167882995</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.6871897014600021</v>
+        <v>0.6873354789812673</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>798</v>
@@ -10942,19 +10942,19 @@
         <v>858462</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>821219</v>
+        <v>819133</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>893469</v>
+        <v>894052</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6599636045310147</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6313316612192578</v>
+        <v>0.6297282953280511</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6868762730855851</v>
+        <v>0.6873243946388683</v>
       </c>
     </row>
     <row r="51">
@@ -11386,16 +11386,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20916</v>
+        <v>23862</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09315559110663513</v>
+        <v>0.09315559110663511</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2839699901908296</v>
+        <v>0.3239582612954088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -11404,19 +11404,19 @@
         <v>5959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15716</v>
+        <v>16633</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06269892231616124</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0</v>
+        <v>0.01580008599762247</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1653675205244736</v>
+        <v>0.175017078278187</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -11425,19 +11425,19 @@
         <v>12820</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4333</v>
+        <v>4957</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31196</v>
+        <v>29479</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07599709271326781</v>
+        <v>0.07599709271326779</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02568303811866086</v>
+        <v>0.02938442158240687</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1849268446028944</v>
+        <v>0.1747496507097526</v>
       </c>
     </row>
     <row r="7">
@@ -11454,19 +11454,19 @@
         <v>18275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8270</v>
+        <v>8559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33572</v>
+        <v>32774</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2481049906004704</v>
+        <v>0.2481049906004703</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1122714641484677</v>
+        <v>0.1162044606415125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4557835193665712</v>
+        <v>0.4449531412835279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -11475,19 +11475,19 @@
         <v>11670</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4726</v>
+        <v>5545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23100</v>
+        <v>23082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1227936856198232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04972199261705942</v>
+        <v>0.05834805369606107</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2430633128232866</v>
+        <v>0.2428692705910407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -11496,19 +11496,19 @@
         <v>29945</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17769</v>
+        <v>17709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47356</v>
+        <v>46968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1775078468362215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1053302123291374</v>
+        <v>0.1049789107358562</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2807193161540794</v>
+        <v>0.278417211381827</v>
       </c>
     </row>
     <row r="8">
@@ -11525,19 +11525,19 @@
         <v>48521</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33464</v>
+        <v>33429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61090</v>
+        <v>61208</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6587394182928943</v>
+        <v>0.6587394182928942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4543223419481334</v>
+        <v>0.4538470986449646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8293813725737985</v>
+        <v>0.830987818104349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -11546,19 +11546,19 @@
         <v>77410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64308</v>
+        <v>64254</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86298</v>
+        <v>85644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8145073920640156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6766525569007811</v>
+        <v>0.6760800350170915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9080294406209887</v>
+        <v>0.9011473127543683</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -11567,19 +11567,19 @@
         <v>125930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105811</v>
+        <v>106518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>140026</v>
+        <v>140374</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7464950604505106</v>
+        <v>0.7464950604505105</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6272352658306443</v>
+        <v>0.6314224725118925</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8300549062160377</v>
+        <v>0.8321169450057216</v>
       </c>
     </row>
     <row r="9">
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5584</v>
+        <v>6340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008896483202179166</v>
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04278491968990739</v>
+        <v>0.04857834092994898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5878</v>
+        <v>6025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00509318522810746</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02578082905138413</v>
+        <v>0.02642597384064423</v>
       </c>
     </row>
     <row r="11">
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7481</v>
+        <v>9225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01767473571563664</v>
@@ -11746,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07675812489743448</v>
+        <v>0.09464687937624557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -11755,19 +11755,19 @@
         <v>8014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2752</v>
+        <v>3313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17286</v>
+        <v>15970</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0614036627750273</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02108368121475308</v>
+        <v>0.02537992745593663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1324387040118524</v>
+        <v>0.1223541672220138</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -11776,19 +11776,19 @@
         <v>9737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4030</v>
+        <v>4192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19234</v>
+        <v>19375</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.04270929378520312</v>
+        <v>0.04270929378520313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01767755073412525</v>
+        <v>0.01838704175196016</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0843669025673241</v>
+        <v>0.08498401255030651</v>
       </c>
     </row>
     <row r="12">
@@ -11818,19 +11818,19 @@
         <v>8586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3724</v>
+        <v>3804</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16101</v>
+        <v>16002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06578252574068255</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02853394272447343</v>
+        <v>0.02914483163321234</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1233596336817997</v>
+        <v>0.1225984950876199</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -11839,19 +11839,19 @@
         <v>8586</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3701</v>
+        <v>3826</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15973</v>
+        <v>16356</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03766011588578905</v>
+        <v>0.03766011588578906</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01623272563211814</v>
+        <v>0.01678003454829537</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07006131019296973</v>
+        <v>0.07174326457923653</v>
       </c>
     </row>
     <row r="13">
@@ -11868,19 +11868,19 @@
         <v>25890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16569</v>
+        <v>16069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37582</v>
+        <v>38697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2656377494158947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1699985790776686</v>
+        <v>0.1648712381580373</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3855921926427964</v>
+        <v>0.3970373310084415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -11889,19 +11889,19 @@
         <v>35776</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26647</v>
+        <v>25686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48278</v>
+        <v>47431</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2741015895743119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2041588767095364</v>
+        <v>0.1968004504882309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3698895009264707</v>
+        <v>0.3634001495625544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -11910,19 +11910,19 @@
         <v>61666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46531</v>
+        <v>45671</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78533</v>
+        <v>79146</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2704832490013211</v>
+        <v>0.2704832490013212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2040959398912607</v>
+        <v>0.2003240633351432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3444626829856827</v>
+        <v>0.347154353350041</v>
       </c>
     </row>
     <row r="14">
@@ -11939,19 +11939,19 @@
         <v>69852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57232</v>
+        <v>56998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78828</v>
+        <v>80154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7166875148684687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5872093493770774</v>
+        <v>0.5848067279614173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8087800862811578</v>
+        <v>0.8223917633622052</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -11960,19 +11960,19 @@
         <v>76983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64516</v>
+        <v>65226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88681</v>
+        <v>88861</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5898157387077992</v>
+        <v>0.589815738707799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4943022934351347</v>
+        <v>0.4997390361506497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6794467482865975</v>
+        <v>0.6808227338959704</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>115</v>
@@ -11981,19 +11981,19 @@
         <v>146835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128928</v>
+        <v>126960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163326</v>
+        <v>163334</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6440541560995791</v>
+        <v>0.6440541560995792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5655094274637672</v>
+        <v>0.5568770735653944</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7163846526266641</v>
+        <v>0.7164212227408071</v>
       </c>
     </row>
     <row r="15">
@@ -12132,19 +12132,19 @@
         <v>4323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1152</v>
+        <v>982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10618</v>
+        <v>9581</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03361464744259192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008957219551095873</v>
+        <v>0.00763367153013175</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08255898709315719</v>
+        <v>0.07449618650744616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -12153,19 +12153,19 @@
         <v>2209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6618</v>
+        <v>6277</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01463550946873568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00369627465579906</v>
+        <v>0.003735145246556524</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04383794078711697</v>
+        <v>0.04158053323665882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -12174,19 +12174,19 @@
         <v>6533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2629</v>
+        <v>2820</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13103</v>
+        <v>13314</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02336631638565939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009402359208687955</v>
+        <v>0.01008752899110608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04686736037058095</v>
+        <v>0.04762300475315964</v>
       </c>
     </row>
     <row r="18">
@@ -12203,19 +12203,19 @@
         <v>9456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4426</v>
+        <v>3864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17866</v>
+        <v>17036</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07352329151865891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03441665786505103</v>
+        <v>0.03004131685018875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.13891622694217</v>
+        <v>0.1324611959267031</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -12224,19 +12224,19 @@
         <v>7631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3679</v>
+        <v>3721</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13311</v>
+        <v>12792</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05054402070631817</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02436824114377831</v>
+        <v>0.02464794021686321</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08816826430127893</v>
+        <v>0.0847318552453899</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -12245,19 +12245,19 @@
         <v>17087</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10229</v>
+        <v>10611</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26200</v>
+        <v>26818</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06111497376175262</v>
+        <v>0.06111497376175264</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03658725303228526</v>
+        <v>0.03795421186861002</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0937115181724454</v>
+        <v>0.09592264087053072</v>
       </c>
     </row>
     <row r="19">
@@ -12274,19 +12274,19 @@
         <v>24870</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16045</v>
+        <v>16567</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36129</v>
+        <v>36433</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1933698841241541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1247512235982992</v>
+        <v>0.1288117254783116</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2809098775039947</v>
+        <v>0.2832777789119643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -12295,19 +12295,19 @@
         <v>33709</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25721</v>
+        <v>25317</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42863</v>
+        <v>42886</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2232879089151635</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1703714056517212</v>
+        <v>0.1677000285386469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2839240912983579</v>
+        <v>0.2840724008447061</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -12316,19 +12316,19 @@
         <v>58579</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45760</v>
+        <v>46638</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71226</v>
+        <v>72820</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2095249815290064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1636745009510979</v>
+        <v>0.166814832444427</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2547607786947543</v>
+        <v>0.2604606120968641</v>
       </c>
     </row>
     <row r="20">
@@ -12345,19 +12345,19 @@
         <v>89964</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78551</v>
+        <v>78603</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100711</v>
+        <v>100895</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.699492176914595</v>
+        <v>0.6994921769145949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6107544058244727</v>
+        <v>0.6111621646975426</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.783053635254975</v>
+        <v>0.784485467625177</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -12366,19 +12366,19 @@
         <v>107419</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97460</v>
+        <v>97604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116775</v>
+        <v>116474</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7115325609097826</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6455690336643761</v>
+        <v>0.6465206271716577</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7735115328937403</v>
+        <v>0.7715171536131332</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>228</v>
@@ -12387,19 +12387,19 @@
         <v>197382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>182741</v>
+        <v>182516</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>212326</v>
+        <v>210583</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7059937283235816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6536259441676763</v>
+        <v>0.6528207878721231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7594457269514776</v>
+        <v>0.7532106639536902</v>
       </c>
     </row>
     <row r="21">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6730</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01153441781500923</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03883749703921818</v>
+        <v>0.0363540937972104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -12512,19 +12512,19 @@
         <v>2164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5732</v>
+        <v>6060</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01224682565218917</v>
+        <v>0.01224682565218918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004021815672924735</v>
+        <v>0.003996747339178652</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0324445290019406</v>
+        <v>0.0343026863698426</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -12533,19 +12533,19 @@
         <v>4162</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1435</v>
+        <v>1460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9498</v>
+        <v>9559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01189406928654447</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00410163484745309</v>
+        <v>0.004171451218700564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02713952744832526</v>
+        <v>0.02731579455726839</v>
       </c>
     </row>
     <row r="23">
@@ -12562,19 +12562,19 @@
         <v>6731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2620</v>
+        <v>2788</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13373</v>
+        <v>13706</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03884333248849454</v>
+        <v>0.03884333248849453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01511896637524195</v>
+        <v>0.01608944078596988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0771710456073085</v>
+        <v>0.07909505688210221</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -12583,19 +12583,19 @@
         <v>10496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6368</v>
+        <v>5924</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16100</v>
+        <v>16110</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05941053019281554</v>
+        <v>0.05941053019281557</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03604583048105273</v>
+        <v>0.03353041852714594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09113012264651162</v>
+        <v>0.09118790681744382</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -12604,19 +12604,19 @@
         <v>17227</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10847</v>
+        <v>11347</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24945</v>
+        <v>24700</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04922646211407009</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03099573641853468</v>
+        <v>0.03242241208806317</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07128028945148319</v>
+        <v>0.07057936142001903</v>
       </c>
     </row>
     <row r="24">
@@ -12633,19 +12633,19 @@
         <v>8556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4039</v>
+        <v>4224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16323</v>
+        <v>16335</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.049376768329652</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02330647916152025</v>
+        <v>0.02437400223240741</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09419499201945754</v>
+        <v>0.09426637191609445</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -12654,19 +12654,19 @@
         <v>7515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4044</v>
+        <v>4246</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13051</v>
+        <v>13641</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04253664856221137</v>
+        <v>0.04253664856221138</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02289189454830042</v>
+        <v>0.02403366643052557</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07387272539080982</v>
+        <v>0.07721239243630186</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -12675,19 +12675,19 @@
         <v>16071</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10346</v>
+        <v>10343</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24511</v>
+        <v>24628</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04592360707643584</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02956324024198812</v>
+        <v>0.02955585992909677</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07003964676782287</v>
+        <v>0.07037483053049003</v>
       </c>
     </row>
     <row r="25">
@@ -12704,19 +12704,19 @@
         <v>31558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23052</v>
+        <v>22161</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43044</v>
+        <v>43839</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1821176789303187</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1330268540539354</v>
+        <v>0.127889111444207</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2483972359930906</v>
+        <v>0.2529871144257256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -12725,19 +12725,19 @@
         <v>37219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30252</v>
+        <v>29417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46645</v>
+        <v>45954</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2106659828789613</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1712289280000203</v>
+        <v>0.1665080014753185</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.264020758713248</v>
+        <v>0.2601088547042966</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -12746,19 +12746,19 @@
         <v>68777</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56058</v>
+        <v>56170</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83014</v>
+        <v>82976</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1965299846197228</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1601835375635231</v>
+        <v>0.1605045947350976</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2372100349207338</v>
+        <v>0.2371013223053434</v>
       </c>
     </row>
     <row r="26">
@@ -12775,19 +12775,19 @@
         <v>124441</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>110483</v>
+        <v>111940</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>134478</v>
+        <v>135293</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7181278024365256</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6375746356068976</v>
+        <v>0.6459829959230969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7760462968705417</v>
+        <v>0.7807479802061688</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>184</v>
@@ -12796,19 +12796,19 @@
         <v>119279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108997</v>
+        <v>108922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127989</v>
+        <v>128113</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6751400127138227</v>
+        <v>0.6751400127138228</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.616944201057162</v>
+        <v>0.6165151636613707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7244377101269286</v>
+        <v>0.7251414600073861</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>299</v>
@@ -12817,19 +12817,19 @@
         <v>243721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>225796</v>
+        <v>227886</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>257300</v>
+        <v>259179</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6964258769032268</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6452067303864126</v>
+        <v>0.6511777943581617</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7352288885741489</v>
+        <v>0.7405970330065673</v>
       </c>
     </row>
     <row r="27">
@@ -12921,19 +12921,19 @@
         <v>2874</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8245</v>
+        <v>8629</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02313627510878611</v>
+        <v>0.0231362751087861</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007295873166916878</v>
+        <v>0.007244271055166853</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06636357243573297</v>
+        <v>0.06946038985170268</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3890</v>
+        <v>3236</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0044101641078417</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0265026341358088</v>
+        <v>0.02205011005250223</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -12966,16 +12966,16 @@
         <v>937</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9014</v>
+        <v>9345</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01299436499389442</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003457457802240247</v>
+        <v>0.003456194662226933</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03326077359577934</v>
+        <v>0.03448176186230845</v>
       </c>
     </row>
     <row r="29">
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6917</v>
+        <v>7545</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01769277934418315</v>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05568041231432297</v>
+        <v>0.06073510591671256</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -13013,19 +13013,19 @@
         <v>6858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3420</v>
+        <v>3469</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11837</v>
+        <v>12353</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04672547396106116</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02329928885778012</v>
+        <v>0.02363547907102073</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08064841812172782</v>
+        <v>0.08416443398515452</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -13034,19 +13034,19 @@
         <v>9056</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5150</v>
+        <v>4423</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16383</v>
+        <v>15609</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03341665170522099</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01900109557131863</v>
+        <v>0.01632164105192247</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0604497202257436</v>
+        <v>0.05759340520006394</v>
       </c>
     </row>
     <row r="30">
@@ -13063,19 +13063,19 @@
         <v>5693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2530</v>
+        <v>1975</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12326</v>
+        <v>11373</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04582253148624243</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02036261691374866</v>
+        <v>0.01590094146941139</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09921209403691786</v>
+        <v>0.0915429962340872</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>9</v>
@@ -13084,19 +13084,19 @@
         <v>5926</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2661</v>
+        <v>2627</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>10664</v>
+        <v>10561</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0403741044927621</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01812823555855949</v>
+        <v>0.01789569121239324</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07265254631784039</v>
+        <v>0.07194987446493613</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>15</v>
@@ -13105,19 +13105,19 @@
         <v>11619</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6684</v>
+        <v>6620</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>19159</v>
+        <v>18696</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0428717075360565</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02466246568161799</v>
+        <v>0.02442604742965558</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07069546404267936</v>
+        <v>0.06898397639010687</v>
       </c>
     </row>
     <row r="31">
@@ -13134,19 +13134,19 @@
         <v>19192</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12254</v>
+        <v>12368</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27887</v>
+        <v>28513</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1544817370115329</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09863482993797634</v>
+        <v>0.0995498977030284</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.224468001521251</v>
+        <v>0.2295097659905419</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>37</v>
@@ -13155,19 +13155,19 @@
         <v>22553</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16622</v>
+        <v>16206</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29785</v>
+        <v>29734</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.153656732210904</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.113245237135278</v>
+        <v>0.1104092551244397</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2029242767117427</v>
+        <v>0.2025765486516023</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -13176,19 +13176,19 @@
         <v>41745</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32911</v>
+        <v>32117</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54259</v>
+        <v>53399</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1540349210906025</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1214360247572533</v>
+        <v>0.1185087453134432</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2002067046186022</v>
+        <v>0.197034726331505</v>
       </c>
     </row>
     <row r="32">
@@ -13205,19 +13205,19 @@
         <v>94278</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>84570</v>
+        <v>84456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>102882</v>
+        <v>102344</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7588666770492555</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6807285369700711</v>
+        <v>0.6798071019354747</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8281269651505865</v>
+        <v>0.8237902838614669</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>176</v>
@@ -13226,19 +13226,19 @@
         <v>110793</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>101907</v>
+        <v>101627</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>117949</v>
+        <v>118257</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.754833525227431</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.694294929790122</v>
+        <v>0.6923875162375253</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8035908441719751</v>
+        <v>0.8056883184846781</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>277</v>
@@ -13247,19 +13247,19 @@
         <v>205071</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>191564</v>
+        <v>191949</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>216599</v>
+        <v>216619</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7566823546742256</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7068447978150314</v>
+        <v>0.7082639829371516</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7992213265274876</v>
+        <v>0.7992929478969906</v>
       </c>
     </row>
     <row r="33">
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4264</v>
+        <v>4917</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01139953203648436</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05932038171971572</v>
+        <v>0.06840686029541986</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -13388,16 +13388,16 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4706</v>
+        <v>4188</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.004709151929513404</v>
+        <v>0.004709151929513405</v>
       </c>
       <c r="V34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02704677020348972</v>
+        <v>0.02407035748878165</v>
       </c>
     </row>
     <row r="35">
@@ -13414,19 +13414,19 @@
         <v>4189</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1651</v>
+        <v>1562</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9190</v>
+        <v>9009</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05827626326316283</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02297144640079558</v>
+        <v>0.02173498165702814</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1278391958487159</v>
+        <v>0.1253281713859048</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -13435,19 +13435,19 @@
         <v>2046</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>484</v>
+        <v>636</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5694</v>
+        <v>4980</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02003576800348935</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00474020242330172</v>
+        <v>0.006224206208520462</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05575148197106065</v>
+        <v>0.04876576875876506</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -13456,19 +13456,19 @@
         <v>6235</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2993</v>
+        <v>2932</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11319</v>
+        <v>11708</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03583293419077581</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01719862775675113</v>
+        <v>0.01684901248056116</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06504528779936272</v>
+        <v>0.06728308289752455</v>
       </c>
     </row>
     <row r="36">
@@ -13485,19 +13485,19 @@
         <v>4665</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1682</v>
+        <v>1849</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9231</v>
+        <v>10049</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06489091060896021</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02339811106186267</v>
+        <v>0.02572205216821644</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1284187944440641</v>
+        <v>0.1397933587253596</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>7</v>
@@ -13506,19 +13506,19 @@
         <v>4390</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1885</v>
+        <v>1905</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>8773</v>
+        <v>8643</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04298914318358509</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01845825140977566</v>
+        <v>0.01865410855330311</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08590010370330542</v>
+        <v>0.08463523507094306</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -13527,19 +13527,19 @@
         <v>9055</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5237</v>
+        <v>5222</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15426</v>
+        <v>15479</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.05203677338461982</v>
+        <v>0.05203677338461984</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03009463877180856</v>
+        <v>0.03001172135437277</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0886493365116703</v>
+        <v>0.08895485919146739</v>
       </c>
     </row>
     <row r="37">
@@ -13556,19 +13556,19 @@
         <v>12265</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7444</v>
+        <v>7312</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18624</v>
+        <v>18373</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1706186122515727</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1035496438528831</v>
+        <v>0.1017163612793207</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2590843266927663</v>
+        <v>0.2555866445455066</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -13577,19 +13577,19 @@
         <v>17127</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12003</v>
+        <v>12086</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23551</v>
+        <v>23191</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1677013700962807</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1175350428906502</v>
+        <v>0.1183452954377226</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2306055322795601</v>
+        <v>0.2270816190647691</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>47</v>
@@ -13598,19 +13598,19 @@
         <v>29391</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>22415</v>
+        <v>22315</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>38008</v>
+        <v>38004</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1689064841729361</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1288145945170089</v>
+        <v>0.1282380331085922</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2184235074840409</v>
+        <v>0.2184010558737184</v>
       </c>
     </row>
     <row r="38">
@@ -13627,19 +13627,19 @@
         <v>49946</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>43052</v>
+        <v>43384</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>55993</v>
+        <v>56339</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6948146818398202</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5989065311900278</v>
+        <v>0.6035275396423851</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7789293465367866</v>
+        <v>0.7837496542292837</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>142</v>
@@ -13648,19 +13648,19 @@
         <v>78563</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>71850</v>
+        <v>71512</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>84694</v>
+        <v>84324</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7692737187166447</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7035407256205721</v>
+        <v>0.7002351941010887</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.829308671819774</v>
+        <v>0.8256855645951247</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>213</v>
@@ -13669,19 +13669,19 @@
         <v>128509</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>119222</v>
+        <v>117694</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>137669</v>
+        <v>136986</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7385146563221548</v>
+        <v>0.738514656322155</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6851421550709265</v>
+        <v>0.6763653688771941</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7911564690991031</v>
+        <v>0.7872296228403729</v>
       </c>
     </row>
     <row r="39">
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4554</v>
+        <v>4590</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02053860782401733</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07192020264375058</v>
+        <v>0.07248098538023208</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -13841,19 +13841,19 @@
         <v>3132</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1026</v>
+        <v>1240</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7536</v>
+        <v>7782</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02361572563906908</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007735119873200778</v>
+        <v>0.009350051760781098</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05682202357608346</v>
+        <v>0.05867906965239351</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -13862,19 +13862,19 @@
         <v>4433</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1759</v>
+        <v>1933</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9536</v>
+        <v>9588</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.02262132227398175</v>
+        <v>0.02262132227398176</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00897442552571274</v>
+        <v>0.00986514606618653</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04866809962878234</v>
+        <v>0.04892921395536281</v>
       </c>
     </row>
     <row r="42">
@@ -13891,19 +13891,19 @@
         <v>2137</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6478</v>
+        <v>5866</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03374450371405732</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.009469080091739133</v>
+        <v>0.009430161103222935</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1023002119372788</v>
+        <v>0.09262962599490143</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3080</v>
+        <v>3341</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.006712031877480146</v>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02322209934957235</v>
+        <v>0.02519096304103531</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5</v>
@@ -13933,19 +13933,19 @@
         <v>3027</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1167</v>
+        <v>1136</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>7130</v>
+        <v>7491</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01544786279998531</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.005954650279581702</v>
+        <v>0.005795935523558876</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03638922709435657</v>
+        <v>0.03822922933221683</v>
       </c>
     </row>
     <row r="43">
@@ -13962,19 +13962,19 @@
         <v>5812</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2897</v>
+        <v>2692</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10498</v>
+        <v>10238</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.09177965653902674</v>
+        <v>0.09177965653902675</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04575263455389966</v>
+        <v>0.04251811107995025</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1657786251681392</v>
+        <v>0.1616725168630742</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>41</v>
@@ -13983,19 +13983,19 @@
         <v>23341</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>17322</v>
+        <v>17750</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>30785</v>
+        <v>30151</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.175989778982487</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1306103000097298</v>
+        <v>0.1338330463998606</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2321228786800079</v>
+        <v>0.2273398591771684</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>51</v>
@@ -14004,19 +14004,19 @@
         <v>29152</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>22014</v>
+        <v>21401</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>37109</v>
+        <v>37539</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1487763818474852</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1123454035613048</v>
+        <v>0.1092200232867821</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1893827867073102</v>
+        <v>0.1915755013736489</v>
       </c>
     </row>
     <row r="44">
@@ -14033,19 +14033,19 @@
         <v>54074</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>48955</v>
+        <v>48705</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>58049</v>
+        <v>57790</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8539372319228986</v>
+        <v>0.8539372319228985</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7731073667471673</v>
+        <v>0.7691493961783168</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9167107401226456</v>
+        <v>0.9126290418623921</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>196</v>
@@ -14054,19 +14054,19 @@
         <v>105262</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>97519</v>
+        <v>98116</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>112409</v>
+        <v>111306</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7936824635009638</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7352982369686517</v>
+        <v>0.7398007649547915</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8475707477755375</v>
+        <v>0.8392536309457462</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>279</v>
@@ -14075,19 +14075,19 @@
         <v>159335</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>150450</v>
+        <v>149710</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>167557</v>
+        <v>167396</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.8131544330785477</v>
+        <v>0.8131544330785478</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7678076857550596</v>
+        <v>0.7640329416973511</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8551113989980575</v>
+        <v>0.8542913717061136</v>
       </c>
     </row>
     <row r="45">
@@ -14179,19 +14179,19 @@
         <v>5693</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2036</v>
+        <v>2466</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12188</v>
+        <v>12957</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.007771761285400408</v>
+        <v>0.00777176128540041</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00278006815684328</v>
+        <v>0.003367041748615359</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01663973293984035</v>
+        <v>0.01768989025752762</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -14200,19 +14200,19 @@
         <v>3972</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8335</v>
+        <v>9483</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004249543550768506</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001463790949139377</v>
+        <v>0.001466018976028565</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.008916799091025312</v>
+        <v>0.01014562102925387</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>11</v>
@@ -14221,19 +14221,19 @@
         <v>9665</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5043</v>
+        <v>5185</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>16731</v>
+        <v>17147</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.005796990122004905</v>
+        <v>0.005796990122004908</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003024933172537894</v>
+        <v>0.003110313939857342</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01003547665567733</v>
+        <v>0.01028516898389262</v>
       </c>
     </row>
     <row r="47">
@@ -14250,19 +14250,19 @@
         <v>20465</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13015</v>
+        <v>13242</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>31092</v>
+        <v>30240</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.02793958432198781</v>
+        <v>0.02793958432198782</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01776820402450026</v>
+        <v>0.01807827332864075</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0424492251806837</v>
+        <v>0.04128585951051979</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>44</v>
@@ -14271,19 +14271,19 @@
         <v>32757</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>24157</v>
+        <v>23319</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>44903</v>
+        <v>43927</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.03504400902483659</v>
+        <v>0.03504400902483658</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02584419345367089</v>
+        <v>0.02494748507697885</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04803824421642496</v>
+        <v>0.04699465169481977</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>65</v>
@@ -14292,19 +14292,19 @@
         <v>53221</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>41285</v>
+        <v>42300</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>68643</v>
+        <v>68893</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.03192276029028627</v>
+        <v>0.03192276029028628</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02476319537578903</v>
+        <v>0.02537174923568404</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04117290984972306</v>
+        <v>0.04132299776544587</v>
       </c>
     </row>
     <row r="48">
@@ -14321,19 +14321,19 @@
         <v>37368</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>25625</v>
+        <v>25367</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>53120</v>
+        <v>53689</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.05101702511697972</v>
+        <v>0.05101702511697973</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03498453279728021</v>
+        <v>0.03463228042736932</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07252293928607582</v>
+        <v>0.073299607022628</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>50</v>
@@ -14342,19 +14342,19 @@
         <v>40897</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>30402</v>
+        <v>29126</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>54933</v>
+        <v>52902</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.0437526891513238</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03252532672299072</v>
+        <v>0.03115960225868934</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05876922781594239</v>
+        <v>0.056595693866378</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>83</v>
@@ -14363,19 +14363,19 @@
         <v>78265</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>61344</v>
+        <v>61701</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>98603</v>
+        <v>98723</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.0469441930926718</v>
+        <v>0.04694419309267181</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03679463492445347</v>
+        <v>0.03700886083079005</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05914337841676624</v>
+        <v>0.05921517296826976</v>
       </c>
     </row>
     <row r="49">
@@ -14392,19 +14392,19 @@
         <v>137862</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>115584</v>
+        <v>114621</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>165028</v>
+        <v>165166</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1882170146425349</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1578026045127987</v>
+        <v>0.1564870775914728</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2253063120715122</v>
+        <v>0.2254941002779375</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>254</v>
@@ -14413,19 +14413,19 @@
         <v>181395</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>159365</v>
+        <v>160222</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>201787</v>
+        <v>203989</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1940616113314414</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1704934141072758</v>
+        <v>0.1714097276002664</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2158774588133012</v>
+        <v>0.2182334084012582</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>376</v>
@@ -14434,19 +14434,19 @@
         <v>319257</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>288659</v>
+        <v>286364</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>349329</v>
+        <v>350602</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1914938538025466</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1731408680041241</v>
+        <v>0.1717641830916523</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2095313469653816</v>
+        <v>0.2102953156288654</v>
       </c>
     </row>
     <row r="50">
@@ -14463,19 +14463,19 @@
         <v>531074</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>503357</v>
+        <v>498285</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>559216</v>
+        <v>557972</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.7250546146330968</v>
+        <v>0.7250546146330969</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.687213668316204</v>
+        <v>0.6802889183963865</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7634755428324637</v>
+        <v>0.7617774183179957</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>960</v>
@@ -14484,19 +14484,19 @@
         <v>675708</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>651652</v>
+        <v>649965</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>700344</v>
+        <v>702975</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7228921469416296</v>
+        <v>0.7228921469416297</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6971563412483802</v>
+        <v>0.6953507815192925</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7492485123174559</v>
+        <v>0.7520632241369954</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1472</v>
@@ -14505,19 +14505,19 @@
         <v>1206783</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1170740</v>
+        <v>1171718</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1243044</v>
+        <v>1244095</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7238422026924903</v>
+        <v>0.7238422026924906</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7022231109255087</v>
+        <v>0.7028098741291373</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7455919838370642</v>
+        <v>0.7462223346773917</v>
       </c>
     </row>
     <row r="51">
